--- a/data_month/zb/交通运输/规模以上港口吞吐量（2005-2018）.xlsx
+++ b/data_month/zb/交通运输/规模以上港口吞吐量（2005-2018）.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I169"/>
+  <dimension ref="A1:K169"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -474,5117 +474,6133 @@
           <t>沿海规模以上港口货物吞吐量_累计增长</t>
         </is>
       </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>外贸货物吞吐量</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>沿海规模以上港口货物吞吐量</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>2005年10月</t>
+          <t>2005-01</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>16.4</v>
+        <v>27.4</v>
       </c>
       <c r="C2" t="n">
         <v>10400</v>
       </c>
       <c r="D2" t="n">
-        <v>103000</v>
+        <v>10400</v>
       </c>
       <c r="E2" t="n">
-        <v>18.9</v>
+        <v>27.4</v>
       </c>
       <c r="F2" t="n">
-        <v>19.5</v>
+        <v>25.7</v>
       </c>
       <c r="G2" t="n">
-        <v>25900</v>
+        <v>22900</v>
       </c>
       <c r="H2" t="n">
-        <v>240600</v>
+        <v>22900</v>
       </c>
       <c r="I2" t="n">
-        <v>18.7</v>
+        <v>25.7</v>
+      </c>
+      <c r="J2" t="n">
+        <v>10400</v>
+      </c>
+      <c r="K2" t="n">
+        <v>22900</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>2005年11月</t>
+          <t>2005-02</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>13.2</v>
+        <v>10</v>
       </c>
       <c r="C3" t="n">
-        <v>10400</v>
+        <v>8800</v>
       </c>
       <c r="D3" t="n">
-        <v>113700</v>
+        <v>19200</v>
       </c>
       <c r="E3" t="n">
-        <v>18.6</v>
+        <v>19.4</v>
       </c>
       <c r="F3" t="n">
-        <v>17.4</v>
+        <v>9.1</v>
       </c>
       <c r="G3" t="n">
-        <v>25600</v>
+        <v>20000</v>
       </c>
       <c r="H3" t="n">
-        <v>266600</v>
+        <v>43200</v>
       </c>
       <c r="I3" t="n">
-        <v>18.8</v>
+        <v>18.4</v>
+      </c>
+      <c r="J3" t="n">
+        <v>8800</v>
+      </c>
+      <c r="K3" t="n">
+        <v>20300</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>2005年12月</t>
+          <t>2005-03</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>14.9</v>
+        <v>11.5</v>
       </c>
       <c r="C4" t="n">
+        <v>10000</v>
+      </c>
+      <c r="D4" t="n">
+        <v>29300</v>
+      </c>
+      <c r="E4" t="n">
+        <v>16.9</v>
+      </c>
+      <c r="F4" t="n">
+        <v>12.8</v>
+      </c>
+      <c r="G4" t="n">
+        <v>22900</v>
+      </c>
+      <c r="H4" t="n">
+        <v>66100</v>
+      </c>
+      <c r="I4" t="n">
+        <v>16.3</v>
+      </c>
+      <c r="J4" t="n">
         <v>10100</v>
       </c>
-      <c r="D4" t="n">
-        <v>124000</v>
-      </c>
-      <c r="E4" t="n">
-        <v>18.5</v>
-      </c>
-      <c r="F4" t="n">
-        <v>20.1</v>
-      </c>
-      <c r="G4" t="n">
-        <v>25600</v>
-      </c>
-      <c r="H4" t="n">
-        <v>292500</v>
-      </c>
-      <c r="I4" t="n">
-        <v>19</v>
+      <c r="K4" t="n">
+        <v>22900</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>2005年1月</t>
+          <t>2005-04</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>27.4</v>
+        <v>16.4</v>
       </c>
       <c r="C5" t="n">
         <v>10400</v>
       </c>
       <c r="D5" t="n">
-        <v>10400</v>
+        <v>39900</v>
       </c>
       <c r="E5" t="n">
-        <v>27.4</v>
+        <v>17.6</v>
       </c>
       <c r="F5" t="n">
-        <v>25.7</v>
+        <v>18.1</v>
       </c>
       <c r="G5" t="n">
-        <v>22900</v>
+        <v>24000</v>
       </c>
       <c r="H5" t="n">
-        <v>22900</v>
+        <v>90600</v>
       </c>
       <c r="I5" t="n">
-        <v>25.7</v>
+        <v>17.5</v>
+      </c>
+      <c r="J5" t="n">
+        <v>10600</v>
+      </c>
+      <c r="K5" t="n">
+        <v>24500</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2005年2月</t>
+          <t>2005-05</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>10</v>
+        <v>17.9</v>
       </c>
       <c r="C6" t="n">
-        <v>8800</v>
+        <v>10500</v>
       </c>
       <c r="D6" t="n">
-        <v>19200</v>
+        <v>50400</v>
       </c>
       <c r="E6" t="n">
-        <v>19.4</v>
+        <v>17.7</v>
       </c>
       <c r="F6" t="n">
-        <v>9.1</v>
+        <v>18</v>
       </c>
       <c r="G6" t="n">
-        <v>20000</v>
+        <v>24200</v>
       </c>
       <c r="H6" t="n">
-        <v>43200</v>
+        <v>115100</v>
       </c>
       <c r="I6" t="n">
-        <v>18.4</v>
+        <v>17.9</v>
+      </c>
+      <c r="J6" t="n">
+        <v>10500</v>
+      </c>
+      <c r="K6" t="n">
+        <v>24500</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>2005年3月</t>
+          <t>2005-06</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>11.5</v>
+        <v>17.9</v>
       </c>
       <c r="C7" t="n">
-        <v>10000</v>
+        <v>10400</v>
       </c>
       <c r="D7" t="n">
-        <v>29300</v>
+        <v>60900</v>
       </c>
       <c r="E7" t="n">
-        <v>16.9</v>
+        <v>18.1</v>
       </c>
       <c r="F7" t="n">
-        <v>12.8</v>
+        <v>17</v>
       </c>
       <c r="G7" t="n">
-        <v>22900</v>
+        <v>23900</v>
       </c>
       <c r="H7" t="n">
-        <v>66100</v>
+        <v>139300</v>
       </c>
       <c r="I7" t="n">
-        <v>16.3</v>
+        <v>18</v>
+      </c>
+      <c r="J7" t="n">
+        <v>10500</v>
+      </c>
+      <c r="K7" t="n">
+        <v>24200</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>2005年4月</t>
+          <t>2005-07</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>16.4</v>
+        <v>20.5</v>
       </c>
       <c r="C8" t="n">
         <v>10400</v>
       </c>
       <c r="D8" t="n">
-        <v>39900</v>
+        <v>71500</v>
       </c>
       <c r="E8" t="n">
-        <v>17.6</v>
+        <v>18.7</v>
       </c>
       <c r="F8" t="n">
-        <v>18.1</v>
+        <v>18.5</v>
       </c>
       <c r="G8" t="n">
-        <v>24000</v>
+        <v>24200</v>
       </c>
       <c r="H8" t="n">
-        <v>90600</v>
+        <v>163700</v>
       </c>
       <c r="I8" t="n">
-        <v>17.5</v>
+        <v>18.2</v>
+      </c>
+      <c r="J8" t="n">
+        <v>10600</v>
+      </c>
+      <c r="K8" t="n">
+        <v>24400</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>2005年5月</t>
+          <t>2005-08</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>17.9</v>
+        <v>20.3</v>
       </c>
       <c r="C9" t="n">
-        <v>10500</v>
+        <v>10400</v>
       </c>
       <c r="D9" t="n">
-        <v>50400</v>
+        <v>82100</v>
       </c>
       <c r="E9" t="n">
+        <v>19.3</v>
+      </c>
+      <c r="F9" t="n">
         <v>17.7</v>
       </c>
-      <c r="F9" t="n">
-        <v>18</v>
-      </c>
       <c r="G9" t="n">
-        <v>24200</v>
+        <v>24600</v>
       </c>
       <c r="H9" t="n">
-        <v>115100</v>
+        <v>188500</v>
       </c>
       <c r="I9" t="n">
-        <v>17.9</v>
+        <v>18.2</v>
+      </c>
+      <c r="J9" t="n">
+        <v>10600</v>
+      </c>
+      <c r="K9" t="n">
+        <v>24800</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>2005年6月</t>
+          <t>2005-09</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>17.9</v>
+        <v>16.8</v>
       </c>
       <c r="C10" t="n">
-        <v>10400</v>
+        <v>10300</v>
       </c>
       <c r="D10" t="n">
-        <v>60900</v>
+        <v>92600</v>
       </c>
       <c r="E10" t="n">
-        <v>18.1</v>
+        <v>19.1</v>
       </c>
       <c r="F10" t="n">
-        <v>17</v>
+        <v>17.2</v>
       </c>
       <c r="G10" t="n">
-        <v>23900</v>
+        <v>25300</v>
       </c>
       <c r="H10" t="n">
-        <v>139300</v>
+        <v>214500</v>
       </c>
       <c r="I10" t="n">
-        <v>18</v>
+        <v>18.5</v>
+      </c>
+      <c r="J10" t="n">
+        <v>10500</v>
+      </c>
+      <c r="K10" t="n">
+        <v>26000</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>2005年7月</t>
+          <t>2005-10</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>20.5</v>
+        <v>16.4</v>
       </c>
       <c r="C11" t="n">
         <v>10400</v>
       </c>
       <c r="D11" t="n">
-        <v>71500</v>
+        <v>103000</v>
       </c>
       <c r="E11" t="n">
+        <v>18.9</v>
+      </c>
+      <c r="F11" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="G11" t="n">
+        <v>25900</v>
+      </c>
+      <c r="H11" t="n">
+        <v>240600</v>
+      </c>
+      <c r="I11" t="n">
         <v>18.7</v>
       </c>
-      <c r="F11" t="n">
-        <v>18.5</v>
-      </c>
-      <c r="G11" t="n">
-        <v>24200</v>
-      </c>
-      <c r="H11" t="n">
-        <v>163700</v>
-      </c>
-      <c r="I11" t="n">
-        <v>18.2</v>
+      <c r="J11" t="n">
+        <v>10400</v>
+      </c>
+      <c r="K11" t="n">
+        <v>26100</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>2005年8月</t>
+          <t>2005-11</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>20.3</v>
+        <v>13.2</v>
       </c>
       <c r="C12" t="n">
         <v>10400</v>
       </c>
       <c r="D12" t="n">
-        <v>82100</v>
+        <v>113700</v>
       </c>
       <c r="E12" t="n">
-        <v>19.3</v>
+        <v>18.6</v>
       </c>
       <c r="F12" t="n">
-        <v>17.7</v>
+        <v>17.4</v>
       </c>
       <c r="G12" t="n">
-        <v>24600</v>
+        <v>25600</v>
       </c>
       <c r="H12" t="n">
-        <v>188500</v>
+        <v>266600</v>
       </c>
       <c r="I12" t="n">
-        <v>18.2</v>
+        <v>18.8</v>
+      </c>
+      <c r="J12" t="n">
+        <v>10700</v>
+      </c>
+      <c r="K12" t="n">
+        <v>26000</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>2005年9月</t>
+          <t>2005-12</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>16.8</v>
+        <v>14.9</v>
       </c>
       <c r="C13" t="n">
+        <v>10100</v>
+      </c>
+      <c r="D13" t="n">
+        <v>124000</v>
+      </c>
+      <c r="E13" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="F13" t="n">
+        <v>20.1</v>
+      </c>
+      <c r="G13" t="n">
+        <v>25600</v>
+      </c>
+      <c r="H13" t="n">
+        <v>292500</v>
+      </c>
+      <c r="I13" t="n">
+        <v>19</v>
+      </c>
+      <c r="J13" t="n">
         <v>10300</v>
       </c>
-      <c r="D13" t="n">
-        <v>92600</v>
-      </c>
-      <c r="E13" t="n">
-        <v>19.1</v>
-      </c>
-      <c r="F13" t="n">
-        <v>17.2</v>
-      </c>
-      <c r="G13" t="n">
-        <v>25300</v>
-      </c>
-      <c r="H13" t="n">
-        <v>214500</v>
-      </c>
-      <c r="I13" t="n">
-        <v>18.5</v>
+      <c r="K13" t="n">
+        <v>25900</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>2006年10月</t>
+          <t>2006-01</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>17</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="C14" t="n">
-        <v>12500</v>
+        <v>11500</v>
       </c>
       <c r="D14" t="n">
-        <v>120900</v>
+        <v>11500</v>
       </c>
       <c r="E14" t="n">
-        <v>17.1</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="F14" t="n">
-        <v>13.6</v>
+        <v>14.1</v>
       </c>
       <c r="G14" t="n">
-        <v>29800</v>
+        <v>26500</v>
       </c>
       <c r="H14" t="n">
-        <v>282400</v>
+        <v>26500</v>
       </c>
       <c r="I14" t="n">
-        <v>17.1</v>
+        <v>14.1</v>
+      </c>
+      <c r="J14" t="n">
+        <v>11500</v>
+      </c>
+      <c r="K14" t="n">
+        <v>26500</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>2006年11月</t>
+          <t>2006-02</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="C15" t="n">
-        <v>12301</v>
+        <v>9800</v>
       </c>
       <c r="D15" t="n">
-        <v>133292</v>
+        <v>21600</v>
       </c>
       <c r="E15" t="n">
-        <v>17</v>
+        <v>12.2</v>
       </c>
       <c r="F15" t="n">
-        <v>13.6</v>
+        <v>18.4</v>
       </c>
       <c r="G15" t="n">
-        <v>29430</v>
+        <v>23600</v>
       </c>
       <c r="H15" t="n">
-        <v>311966</v>
+        <v>50400</v>
       </c>
       <c r="I15" t="n">
-        <v>16.9</v>
+        <v>16.8</v>
+      </c>
+      <c r="J15" t="n">
+        <v>10100</v>
+      </c>
+      <c r="K15" t="n">
+        <v>23900</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>2006年12月</t>
+          <t>2006-03</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>14.7</v>
+        <v>14.4</v>
       </c>
       <c r="C16" t="n">
-        <v>11600</v>
+        <v>11800</v>
       </c>
       <c r="D16" t="n">
-        <v>144900</v>
+        <v>33600</v>
       </c>
       <c r="E16" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="F16" t="n">
         <v>16.7</v>
       </c>
-      <c r="F16" t="n">
-        <v>10.4</v>
-      </c>
       <c r="G16" t="n">
-        <v>28200</v>
+        <v>27400</v>
       </c>
       <c r="H16" t="n">
-        <v>340200</v>
+        <v>78000</v>
       </c>
       <c r="I16" t="n">
-        <v>16.2</v>
+        <v>17</v>
+      </c>
+      <c r="J16" t="n">
+        <v>12000</v>
+      </c>
+      <c r="K16" t="n">
+        <v>27600</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>2006年1月</t>
+          <t>2006-04</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>9.699999999999999</v>
+        <v>14.9</v>
       </c>
       <c r="C17" t="n">
-        <v>11500</v>
+        <v>11900</v>
       </c>
       <c r="D17" t="n">
-        <v>11500</v>
+        <v>45700</v>
       </c>
       <c r="E17" t="n">
-        <v>9.699999999999999</v>
+        <v>14.4</v>
       </c>
       <c r="F17" t="n">
-        <v>14.1</v>
+        <v>16</v>
       </c>
       <c r="G17" t="n">
-        <v>26500</v>
+        <v>28200</v>
       </c>
       <c r="H17" t="n">
-        <v>26500</v>
+        <v>106600</v>
       </c>
       <c r="I17" t="n">
-        <v>14.1</v>
+        <v>17.2</v>
+      </c>
+      <c r="J17" t="n">
+        <v>12100</v>
+      </c>
+      <c r="K17" t="n">
+        <v>28600</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>2006年2月</t>
+          <t>2006-05</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>32</v>
+        <v>11.7</v>
       </c>
       <c r="C18" t="n">
-        <v>9800</v>
+        <v>11900</v>
       </c>
       <c r="D18" t="n">
-        <v>21600</v>
+        <v>57800</v>
       </c>
       <c r="E18" t="n">
-        <v>12.2</v>
+        <v>14.3</v>
       </c>
       <c r="F18" t="n">
-        <v>18.4</v>
+        <v>15.7</v>
       </c>
       <c r="G18" t="n">
-        <v>23600</v>
+        <v>28300</v>
       </c>
       <c r="H18" t="n">
-        <v>50400</v>
+        <v>135700</v>
       </c>
       <c r="I18" t="n">
-        <v>16.8</v>
+        <v>17.6</v>
+      </c>
+      <c r="J18" t="n">
+        <v>12100</v>
+      </c>
+      <c r="K18" t="n">
+        <v>29100</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>2006年3月</t>
+          <t>2006-06</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>14.4</v>
+        <v>11.8</v>
       </c>
       <c r="C19" t="n">
-        <v>11800</v>
+        <v>11900</v>
       </c>
       <c r="D19" t="n">
-        <v>33600</v>
+        <v>70000</v>
       </c>
       <c r="E19" t="n">
-        <v>13.5</v>
+        <v>14.5</v>
       </c>
       <c r="F19" t="n">
-        <v>16.7</v>
+        <v>15.5</v>
       </c>
       <c r="G19" t="n">
-        <v>27400</v>
+        <v>28300</v>
       </c>
       <c r="H19" t="n">
-        <v>78000</v>
+        <v>164100</v>
       </c>
       <c r="I19" t="n">
-        <v>17</v>
+        <v>17.6</v>
+      </c>
+      <c r="J19" t="n">
+        <v>12200</v>
+      </c>
+      <c r="K19" t="n">
+        <v>28400</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>2006年4月</t>
+          <t>2006-07</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>14.9</v>
+        <v>2</v>
       </c>
       <c r="C20" t="n">
-        <v>11900</v>
+        <v>11700</v>
       </c>
       <c r="D20" t="n">
-        <v>45700</v>
+        <v>82700</v>
       </c>
       <c r="E20" t="n">
-        <v>14.4</v>
+        <v>15.3</v>
       </c>
       <c r="F20" t="n">
-        <v>16</v>
+        <v>13.3</v>
       </c>
       <c r="G20" t="n">
-        <v>28200</v>
+        <v>27700</v>
       </c>
       <c r="H20" t="n">
-        <v>106600</v>
+        <v>193100</v>
       </c>
       <c r="I20" t="n">
-        <v>17.2</v>
+        <v>17.8</v>
+      </c>
+      <c r="J20" t="n">
+        <v>12700</v>
+      </c>
+      <c r="K20" t="n">
+        <v>29000</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>2006年5月</t>
+          <t>2006-08</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>11.7</v>
+        <v>19.7</v>
       </c>
       <c r="C21" t="n">
-        <v>11900</v>
+        <v>12600</v>
       </c>
       <c r="D21" t="n">
-        <v>57800</v>
+        <v>95700</v>
       </c>
       <c r="E21" t="n">
-        <v>14.3</v>
+        <v>16.3</v>
       </c>
       <c r="F21" t="n">
-        <v>15.7</v>
+        <v>15.4</v>
       </c>
       <c r="G21" t="n">
-        <v>28300</v>
+        <v>29200</v>
       </c>
       <c r="H21" t="n">
-        <v>135700</v>
+        <v>222500</v>
       </c>
       <c r="I21" t="n">
         <v>17.6</v>
       </c>
+      <c r="J21" t="n">
+        <v>13000</v>
+      </c>
+      <c r="K21" t="n">
+        <v>29400</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>2006年6月</t>
+          <t>2006-09</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>11.8</v>
+        <v>19.3</v>
       </c>
       <c r="C22" t="n">
-        <v>11900</v>
+        <v>12400</v>
       </c>
       <c r="D22" t="n">
-        <v>70000</v>
+        <v>108200</v>
       </c>
       <c r="E22" t="n">
-        <v>14.5</v>
+        <v>16.8</v>
       </c>
       <c r="F22" t="n">
-        <v>15.5</v>
+        <v>15.2</v>
       </c>
       <c r="G22" t="n">
-        <v>28300</v>
+        <v>29500</v>
       </c>
       <c r="H22" t="n">
-        <v>164100</v>
+        <v>252300</v>
       </c>
       <c r="I22" t="n">
-        <v>17.6</v>
+        <v>17.5</v>
+      </c>
+      <c r="J22" t="n">
+        <v>12500</v>
+      </c>
+      <c r="K22" t="n">
+        <v>29800</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>2006年7月</t>
+          <t>2006-10</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2</v>
+        <v>17</v>
       </c>
       <c r="C23" t="n">
-        <v>11700</v>
+        <v>12500</v>
       </c>
       <c r="D23" t="n">
-        <v>82700</v>
+        <v>120900</v>
       </c>
       <c r="E23" t="n">
-        <v>15.3</v>
+        <v>17.1</v>
       </c>
       <c r="F23" t="n">
-        <v>13.3</v>
+        <v>13.6</v>
       </c>
       <c r="G23" t="n">
-        <v>27700</v>
+        <v>29800</v>
       </c>
       <c r="H23" t="n">
-        <v>193100</v>
+        <v>282400</v>
       </c>
       <c r="I23" t="n">
-        <v>17.8</v>
+        <v>17.1</v>
+      </c>
+      <c r="J23" t="n">
+        <v>12700</v>
+      </c>
+      <c r="K23" t="n">
+        <v>30100</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>2006年8月</t>
+          <t>2006-11</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>19.7</v>
+        <v>16</v>
       </c>
       <c r="C24" t="n">
-        <v>12600</v>
+        <v>12301</v>
       </c>
       <c r="D24" t="n">
-        <v>95700</v>
+        <v>133292</v>
       </c>
       <c r="E24" t="n">
-        <v>16.3</v>
+        <v>17</v>
       </c>
       <c r="F24" t="n">
-        <v>15.4</v>
+        <v>13.6</v>
       </c>
       <c r="G24" t="n">
-        <v>29200</v>
+        <v>29430</v>
       </c>
       <c r="H24" t="n">
-        <v>222500</v>
+        <v>311966</v>
       </c>
       <c r="I24" t="n">
-        <v>17.6</v>
+        <v>16.9</v>
+      </c>
+      <c r="J24" t="n">
+        <v>12392</v>
+      </c>
+      <c r="K24" t="n">
+        <v>29566</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>2006年9月</t>
+          <t>2006-12</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>19.3</v>
+        <v>14.7</v>
       </c>
       <c r="C25" t="n">
-        <v>12400</v>
+        <v>11600</v>
       </c>
       <c r="D25" t="n">
-        <v>108200</v>
+        <v>144900</v>
       </c>
       <c r="E25" t="n">
-        <v>16.8</v>
+        <v>16.7</v>
       </c>
       <c r="F25" t="n">
-        <v>15.2</v>
+        <v>10.4</v>
       </c>
       <c r="G25" t="n">
-        <v>29500</v>
+        <v>28200</v>
       </c>
       <c r="H25" t="n">
-        <v>252300</v>
+        <v>340200</v>
       </c>
       <c r="I25" t="n">
-        <v>17.5</v>
+        <v>16.2</v>
+      </c>
+      <c r="J25" t="n">
+        <v>11608</v>
+      </c>
+      <c r="K25" t="n">
+        <v>28234</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>2007年10月</t>
+          <t>2007-01</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>7.20360395401962</v>
+        <v>13.4</v>
       </c>
       <c r="C26" t="n">
-        <v>13450</v>
+        <v>13400</v>
       </c>
       <c r="D26" t="n">
-        <v>137498</v>
+        <v>13400</v>
       </c>
       <c r="E26" t="n">
-        <v>13.6430226508303</v>
+        <v>13.4</v>
       </c>
       <c r="F26" t="n">
-        <v>8.50228207189503</v>
+        <v>16</v>
       </c>
       <c r="G26" t="n">
-        <v>32514</v>
+        <v>31100</v>
       </c>
       <c r="H26" t="n">
-        <v>321558</v>
+        <v>31100</v>
       </c>
       <c r="I26" t="n">
-        <v>13.8112084138422</v>
+        <v>16</v>
+      </c>
+      <c r="J26" t="n">
+        <v>13400</v>
+      </c>
+      <c r="K26" t="n">
+        <v>31100</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
         <is>
-          <t>2007年11月</t>
+          <t>2007-02</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>10.3546393959138</v>
+        <v>24.4</v>
       </c>
       <c r="C27" t="n">
-        <v>14024</v>
+        <v>12446</v>
       </c>
       <c r="D27" t="n">
-        <v>151561</v>
+        <v>26017</v>
       </c>
       <c r="E27" t="n">
-        <v>13.4</v>
+        <v>19.2</v>
       </c>
       <c r="F27" t="n">
-        <v>11.6756484167756</v>
+        <v>20.1</v>
       </c>
       <c r="G27" t="n">
-        <v>33262</v>
+        <v>28522</v>
       </c>
       <c r="H27" t="n">
-        <v>354993</v>
+        <v>59859</v>
       </c>
       <c r="I27" t="n">
-        <v>13.7</v>
+        <v>18.4</v>
+      </c>
+      <c r="J27" t="n">
+        <v>12617</v>
+      </c>
+      <c r="K27" t="n">
+        <v>28759</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>2007年12月</t>
-        </is>
-      </c>
-      <c r="B28" t="inlineStr"/>
-      <c r="C28" t="inlineStr"/>
+          <t>2007-03</t>
+        </is>
+      </c>
+      <c r="B28" t="n">
+        <v>8.80000000000001</v>
+      </c>
+      <c r="C28" t="n">
+        <v>12996</v>
+      </c>
       <c r="D28" t="n">
-        <v>164009</v>
+        <v>39632</v>
       </c>
       <c r="E28" t="n">
-        <v>12.4681986189114</v>
-      </c>
-      <c r="F28" t="inlineStr"/>
-      <c r="G28" t="inlineStr"/>
+        <v>17.4</v>
+      </c>
+      <c r="F28" t="n">
+        <v>8.300000000000001</v>
+      </c>
+      <c r="G28" t="n">
+        <v>30200</v>
+      </c>
       <c r="H28" t="n">
-        <v>384843</v>
+        <v>90476</v>
       </c>
       <c r="I28" t="n">
-        <v>12.4643839259361</v>
+        <v>15.4</v>
+      </c>
+      <c r="J28" t="n">
+        <v>13615</v>
+      </c>
+      <c r="K28" t="n">
+        <v>30617</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
         <is>
-          <t>2007年1月</t>
+          <t>2007-04</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>13.4</v>
+        <v>12</v>
       </c>
       <c r="C29" t="n">
-        <v>13400</v>
+        <v>13670</v>
       </c>
       <c r="D29" t="n">
-        <v>13400</v>
+        <v>53374</v>
       </c>
       <c r="E29" t="n">
-        <v>13.4</v>
+        <v>16.1</v>
       </c>
       <c r="F29" t="n">
-        <v>16</v>
+        <v>11.8</v>
       </c>
       <c r="G29" t="n">
-        <v>31100</v>
+        <v>32326</v>
       </c>
       <c r="H29" t="n">
-        <v>31100</v>
+        <v>123074</v>
       </c>
       <c r="I29" t="n">
-        <v>16</v>
+        <v>14.6</v>
+      </c>
+      <c r="J29" t="n">
+        <v>13742</v>
+      </c>
+      <c r="K29" t="n">
+        <v>32598</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
         <is>
-          <t>2007年2月</t>
+          <t>2007-05</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>24.4</v>
+        <v>16.5</v>
       </c>
       <c r="C30" t="n">
-        <v>12446</v>
+        <v>14100</v>
       </c>
       <c r="D30" t="n">
-        <v>26017</v>
+        <v>67700</v>
       </c>
       <c r="E30" t="n">
-        <v>19.2</v>
+        <v>16.5</v>
       </c>
       <c r="F30" t="n">
-        <v>20.1</v>
+        <v>16.4</v>
       </c>
       <c r="G30" t="n">
-        <v>28522</v>
+        <v>33100</v>
       </c>
       <c r="H30" t="n">
-        <v>59859</v>
+        <v>156600</v>
       </c>
       <c r="I30" t="n">
-        <v>18.4</v>
+        <v>15.3</v>
+      </c>
+      <c r="J30" t="n">
+        <v>14326</v>
+      </c>
+      <c r="K30" t="n">
+        <v>33526</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
         <is>
-          <t>2007年3月</t>
+          <t>2007-06</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>8.80000000000001</v>
+        <v>16.4</v>
       </c>
       <c r="C31" t="n">
-        <v>12996</v>
+        <v>14500</v>
       </c>
       <c r="D31" t="n">
-        <v>39632</v>
+        <v>82200</v>
       </c>
       <c r="E31" t="n">
-        <v>17.4</v>
+        <v>15.8</v>
       </c>
       <c r="F31" t="n">
-        <v>8.300000000000001</v>
+        <v>12.4</v>
       </c>
       <c r="G31" t="n">
-        <v>30200</v>
+        <v>32800</v>
       </c>
       <c r="H31" t="n">
-        <v>90476</v>
+        <v>189500</v>
       </c>
       <c r="I31" t="n">
-        <v>15.4</v>
+        <v>14.5</v>
+      </c>
+      <c r="J31" t="n">
+        <v>14500</v>
+      </c>
+      <c r="K31" t="n">
+        <v>32900</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
         <is>
-          <t>2007年4月</t>
+          <t>2007-07</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>12</v>
+        <v>15.8</v>
       </c>
       <c r="C32" t="n">
-        <v>13670</v>
+        <v>13993</v>
       </c>
       <c r="D32" t="n">
-        <v>53374</v>
+        <v>96047</v>
       </c>
       <c r="E32" t="n">
-        <v>16.1</v>
+        <v>15.6</v>
       </c>
       <c r="F32" t="n">
-        <v>11.8</v>
+        <v>17.2</v>
       </c>
       <c r="G32" t="n">
-        <v>32326</v>
+        <v>32631</v>
       </c>
       <c r="H32" t="n">
-        <v>123074</v>
+        <v>222237</v>
       </c>
       <c r="I32" t="n">
-        <v>14.6</v>
+        <v>15</v>
+      </c>
+      <c r="J32" t="n">
+        <v>13847</v>
+      </c>
+      <c r="K32" t="n">
+        <v>32737</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
         <is>
-          <t>2007年5月</t>
+          <t>2007-08</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>16.5</v>
+        <v>7.5</v>
       </c>
       <c r="C33" t="n">
-        <v>14100</v>
+        <v>13740</v>
       </c>
       <c r="D33" t="n">
-        <v>67700</v>
+        <v>109910</v>
       </c>
       <c r="E33" t="n">
-        <v>16.5</v>
+        <v>14.7</v>
       </c>
       <c r="F33" t="n">
-        <v>16.4</v>
+        <v>11.2</v>
       </c>
       <c r="G33" t="n">
-        <v>33100</v>
+        <v>32848</v>
       </c>
       <c r="H33" t="n">
-        <v>156600</v>
+        <v>255323</v>
       </c>
       <c r="I33" t="n">
-        <v>15.3</v>
+        <v>14.6</v>
+      </c>
+      <c r="J33" t="n">
+        <v>13863</v>
+      </c>
+      <c r="K33" t="n">
+        <v>33086</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
         <is>
-          <t>2007年6月</t>
+          <t>2007-09</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>16.4</v>
+        <v>10.6569222511252</v>
       </c>
       <c r="C34" t="n">
-        <v>14500</v>
+        <v>13936</v>
       </c>
       <c r="D34" t="n">
-        <v>82200</v>
+        <v>123904</v>
       </c>
       <c r="E34" t="n">
-        <v>15.8</v>
+        <v>14.2552366676097</v>
       </c>
       <c r="F34" t="n">
-        <v>12.4</v>
+        <v>11.8834293259363</v>
       </c>
       <c r="G34" t="n">
-        <v>32800</v>
+        <v>33284</v>
       </c>
       <c r="H34" t="n">
-        <v>189500</v>
+        <v>288862</v>
       </c>
       <c r="I34" t="n">
-        <v>14.5</v>
+        <v>14.3690269312527</v>
+      </c>
+      <c r="J34" t="n">
+        <v>13994</v>
+      </c>
+      <c r="K34" t="n">
+        <v>33539</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
         <is>
-          <t>2007年7月</t>
+          <t>2007-10</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>15.8</v>
+        <v>7.20360395401962</v>
       </c>
       <c r="C35" t="n">
-        <v>13993</v>
+        <v>13450</v>
       </c>
       <c r="D35" t="n">
-        <v>96047</v>
+        <v>137498</v>
       </c>
       <c r="E35" t="n">
-        <v>15.6</v>
+        <v>13.6430226508303</v>
       </c>
       <c r="F35" t="n">
-        <v>17.2</v>
+        <v>8.50228207189503</v>
       </c>
       <c r="G35" t="n">
-        <v>32631</v>
+        <v>32514</v>
       </c>
       <c r="H35" t="n">
-        <v>222237</v>
+        <v>321558</v>
       </c>
       <c r="I35" t="n">
-        <v>15</v>
+        <v>13.8112084138422</v>
+      </c>
+      <c r="J35" t="n">
+        <v>13594</v>
+      </c>
+      <c r="K35" t="n">
+        <v>32696</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
         <is>
-          <t>2007年8月</t>
+          <t>2007-11</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>7.5</v>
+        <v>10.3546393959138</v>
       </c>
       <c r="C36" t="n">
-        <v>13740</v>
+        <v>14024</v>
       </c>
       <c r="D36" t="n">
-        <v>109910</v>
+        <v>151561</v>
       </c>
       <c r="E36" t="n">
-        <v>14.7</v>
+        <v>13.4</v>
       </c>
       <c r="F36" t="n">
-        <v>11.2</v>
+        <v>11.6756484167756</v>
       </c>
       <c r="G36" t="n">
-        <v>32848</v>
+        <v>33262</v>
       </c>
       <c r="H36" t="n">
-        <v>255323</v>
+        <v>354993</v>
       </c>
       <c r="I36" t="n">
-        <v>14.6</v>
+        <v>13.7</v>
+      </c>
+      <c r="J36" t="n">
+        <v>14063</v>
+      </c>
+      <c r="K36" t="n">
+        <v>33435</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
         <is>
-          <t>2007年9月</t>
-        </is>
-      </c>
-      <c r="B37" t="n">
-        <v>10.6569222511252</v>
-      </c>
-      <c r="C37" t="n">
-        <v>13936</v>
-      </c>
+          <t>2007-12</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr"/>
+      <c r="C37" t="inlineStr"/>
       <c r="D37" t="n">
-        <v>123904</v>
+        <v>164009</v>
       </c>
       <c r="E37" t="n">
-        <v>14.2552366676097</v>
-      </c>
-      <c r="F37" t="n">
-        <v>11.8834293259363</v>
-      </c>
-      <c r="G37" t="n">
-        <v>33284</v>
-      </c>
+        <v>12.4681986189114</v>
+      </c>
+      <c r="F37" t="inlineStr"/>
+      <c r="G37" t="inlineStr"/>
       <c r="H37" t="n">
-        <v>288862</v>
+        <v>384843</v>
       </c>
       <c r="I37" t="n">
-        <v>14.3690269312527</v>
+        <v>12.4643839259361</v>
+      </c>
+      <c r="J37" t="n">
+        <v>12448</v>
+      </c>
+      <c r="K37" t="n">
+        <v>29850</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
         <is>
-          <t>2008年10月</t>
+          <t>2008-01</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>6.29999999999999</v>
+        <v>13.5</v>
       </c>
       <c r="C38" t="n">
-        <v>14332</v>
+        <v>15400</v>
       </c>
       <c r="D38" t="n">
-        <v>152665</v>
+        <v>15400</v>
       </c>
       <c r="E38" t="n">
-        <v>11</v>
+        <v>13.5</v>
       </c>
       <c r="F38" t="n">
-        <v>7.7</v>
+        <v>11.7</v>
       </c>
       <c r="G38" t="n">
-        <v>35198</v>
+        <v>35000</v>
       </c>
       <c r="H38" t="n">
-        <v>362078</v>
+        <v>35000</v>
       </c>
       <c r="I38" t="n">
-        <v>12.5</v>
+        <v>11.7</v>
+      </c>
+      <c r="J38" t="n">
+        <v>15400</v>
+      </c>
+      <c r="K38" t="n">
+        <v>35000</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="inlineStr">
         <is>
-          <t>2008年11月</t>
+          <t>2008-02</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>-6.9</v>
+        <v>-1.17097811112813</v>
       </c>
       <c r="C39" t="n">
-        <v>13200</v>
+        <v>12913</v>
       </c>
       <c r="D39" t="n">
-        <v>165800</v>
+        <v>28591</v>
       </c>
       <c r="E39" t="n">
-        <v>9.300000000000001</v>
+        <v>7.40000000000001</v>
       </c>
       <c r="F39" t="n">
-        <v>-2.1</v>
+        <v>11.3721966895885</v>
       </c>
       <c r="G39" t="n">
-        <v>33000</v>
+        <v>32230</v>
       </c>
       <c r="H39" t="n">
-        <v>395500</v>
+        <v>67828</v>
       </c>
       <c r="I39" t="n">
-        <v>11.3</v>
+        <v>12.5</v>
+      </c>
+      <c r="J39" t="n">
+        <v>13191</v>
+      </c>
+      <c r="K39" t="n">
+        <v>32828</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
         <is>
-          <t>2008年12月</t>
-        </is>
-      </c>
-      <c r="B40" t="inlineStr"/>
-      <c r="C40" t="inlineStr"/>
+          <t>2008-03</t>
+        </is>
+      </c>
+      <c r="B40" t="n">
+        <v>16.8</v>
+      </c>
+      <c r="C40" t="n">
+        <v>15261</v>
+      </c>
       <c r="D40" t="n">
-        <v>178318</v>
+        <v>44040</v>
       </c>
       <c r="E40" t="n">
-        <v>7.7</v>
-      </c>
-      <c r="F40" t="inlineStr"/>
-      <c r="G40" t="inlineStr"/>
+        <v>10.9</v>
+      </c>
+      <c r="F40" t="n">
+        <v>21</v>
+      </c>
+      <c r="G40" t="n">
+        <v>36875</v>
+      </c>
       <c r="H40" t="n">
-        <v>428454</v>
+        <v>104940</v>
       </c>
       <c r="I40" t="n">
-        <v>10.4</v>
+        <v>15.6</v>
+      </c>
+      <c r="J40" t="n">
+        <v>15449</v>
+      </c>
+      <c r="K40" t="n">
+        <v>37112</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="inlineStr">
         <is>
-          <t>2008年1月</t>
+          <t>2008-04</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>13.5</v>
+        <v>11.6</v>
       </c>
       <c r="C41" t="n">
-        <v>15400</v>
+        <v>15465</v>
       </c>
       <c r="D41" t="n">
-        <v>15400</v>
+        <v>59625</v>
       </c>
       <c r="E41" t="n">
-        <v>13.5</v>
+        <v>11.3</v>
       </c>
       <c r="F41" t="n">
-        <v>11.7</v>
+        <v>12.5</v>
       </c>
       <c r="G41" t="n">
-        <v>35000</v>
+        <v>36772</v>
       </c>
       <c r="H41" t="n">
-        <v>35000</v>
+        <v>142250</v>
       </c>
       <c r="I41" t="n">
-        <v>11.7</v>
+        <v>15.2</v>
+      </c>
+      <c r="J41" t="n">
+        <v>15585</v>
+      </c>
+      <c r="K41" t="n">
+        <v>37310</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="inlineStr">
         <is>
-          <t>2008年2月</t>
+          <t>2008-05</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>-1.17097811112813</v>
+        <v>11.1113470764251</v>
       </c>
       <c r="C42" t="n">
-        <v>12913</v>
+        <v>15696</v>
       </c>
       <c r="D42" t="n">
-        <v>28591</v>
+        <v>75457</v>
       </c>
       <c r="E42" t="n">
-        <v>7.40000000000001</v>
+        <v>11.5</v>
       </c>
       <c r="F42" t="n">
-        <v>11.3721966895885</v>
+        <v>12.3620486132079</v>
       </c>
       <c r="G42" t="n">
-        <v>32230</v>
+        <v>37399</v>
       </c>
       <c r="H42" t="n">
-        <v>67828</v>
+        <v>180195</v>
       </c>
       <c r="I42" t="n">
-        <v>12.5</v>
+        <v>15</v>
+      </c>
+      <c r="J42" t="n">
+        <v>15832</v>
+      </c>
+      <c r="K42" t="n">
+        <v>37945</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="inlineStr">
         <is>
-          <t>2008年3月</t>
+          <t>2008-06</t>
         </is>
       </c>
       <c r="B43" t="n">
-        <v>16.8</v>
+        <v>9.271182290681249</v>
       </c>
       <c r="C43" t="n">
-        <v>15261</v>
+        <v>15709</v>
       </c>
       <c r="D43" t="n">
-        <v>44040</v>
+        <v>91571</v>
       </c>
       <c r="E43" t="n">
-        <v>10.9</v>
+        <v>11.6</v>
       </c>
       <c r="F43" t="n">
-        <v>21</v>
+        <v>12.8647857186507</v>
       </c>
       <c r="G43" t="n">
-        <v>36875</v>
+        <v>37123</v>
       </c>
       <c r="H43" t="n">
-        <v>104940</v>
+        <v>217813</v>
       </c>
       <c r="I43" t="n">
-        <v>15.6</v>
+        <v>14.9</v>
+      </c>
+      <c r="J43" t="n">
+        <v>16114</v>
+      </c>
+      <c r="K43" t="n">
+        <v>37618</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="inlineStr">
         <is>
-          <t>2008年4月</t>
+          <t>2008-07</t>
         </is>
       </c>
       <c r="B44" t="n">
-        <v>11.6</v>
+        <v>9.364949376737369</v>
       </c>
       <c r="C44" t="n">
-        <v>15465</v>
+        <v>15438</v>
       </c>
       <c r="D44" t="n">
-        <v>59625</v>
+        <v>106917</v>
       </c>
       <c r="E44" t="n">
-        <v>11.3</v>
+        <v>11.2</v>
       </c>
       <c r="F44" t="n">
-        <v>12.5</v>
+        <v>11.0952907717527</v>
       </c>
       <c r="G44" t="n">
-        <v>36772</v>
+        <v>36516</v>
       </c>
       <c r="H44" t="n">
-        <v>142250</v>
+        <v>254303</v>
       </c>
       <c r="I44" t="n">
-        <v>15.2</v>
+        <v>14.3</v>
+      </c>
+      <c r="J44" t="n">
+        <v>15346</v>
+      </c>
+      <c r="K44" t="n">
+        <v>36490</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="inlineStr">
         <is>
-          <t>2008年5月</t>
+          <t>2008-08</t>
         </is>
       </c>
       <c r="B45" t="n">
-        <v>11.1113470764251</v>
+        <v>15.2274290418925</v>
       </c>
       <c r="C45" t="n">
-        <v>15696</v>
+        <v>15899</v>
       </c>
       <c r="D45" t="n">
-        <v>75457</v>
+        <v>123113</v>
       </c>
       <c r="E45" t="n">
-        <v>11.5</v>
+        <v>12</v>
       </c>
       <c r="F45" t="n">
-        <v>12.3620486132079</v>
+        <v>10.4003364029295</v>
       </c>
       <c r="G45" t="n">
-        <v>37399</v>
+        <v>36546</v>
       </c>
       <c r="H45" t="n">
-        <v>180195</v>
+        <v>291174</v>
       </c>
       <c r="I45" t="n">
-        <v>15</v>
+        <v>13.9</v>
+      </c>
+      <c r="J45" t="n">
+        <v>16196</v>
+      </c>
+      <c r="K45" t="n">
+        <v>36871</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="inlineStr">
         <is>
-          <t>2008年6月</t>
+          <t>2008-09</t>
         </is>
       </c>
       <c r="B46" t="n">
-        <v>9.271182290681249</v>
+        <v>6.18123965709496</v>
       </c>
       <c r="C46" t="n">
-        <v>15709</v>
+        <v>14950</v>
       </c>
       <c r="D46" t="n">
-        <v>91571</v>
+        <v>138408</v>
       </c>
       <c r="E46" t="n">
         <v>11.6</v>
       </c>
       <c r="F46" t="n">
-        <v>12.8647857186507</v>
+        <v>5.9104130099725</v>
       </c>
       <c r="G46" t="n">
-        <v>37123</v>
+        <v>35444</v>
       </c>
       <c r="H46" t="n">
-        <v>217813</v>
+        <v>327001</v>
       </c>
       <c r="I46" t="n">
-        <v>14.9</v>
+        <v>13.1</v>
+      </c>
+      <c r="J46" t="n">
+        <v>15295</v>
+      </c>
+      <c r="K46" t="n">
+        <v>35827</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="inlineStr">
         <is>
-          <t>2008年7月</t>
+          <t>2008-10</t>
         </is>
       </c>
       <c r="B47" t="n">
-        <v>9.364949376737369</v>
+        <v>6.29999999999999</v>
       </c>
       <c r="C47" t="n">
-        <v>15438</v>
+        <v>14332</v>
       </c>
       <c r="D47" t="n">
-        <v>106917</v>
+        <v>152665</v>
       </c>
       <c r="E47" t="n">
-        <v>11.2</v>
+        <v>11</v>
       </c>
       <c r="F47" t="n">
-        <v>11.0952907717527</v>
+        <v>7.7</v>
       </c>
       <c r="G47" t="n">
-        <v>36516</v>
+        <v>35198</v>
       </c>
       <c r="H47" t="n">
-        <v>254303</v>
+        <v>362078</v>
       </c>
       <c r="I47" t="n">
-        <v>14.3</v>
+        <v>12.5</v>
+      </c>
+      <c r="J47" t="n">
+        <v>14257</v>
+      </c>
+      <c r="K47" t="n">
+        <v>35077</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="inlineStr">
         <is>
-          <t>2008年8月</t>
+          <t>2008-11</t>
         </is>
       </c>
       <c r="B48" t="n">
-        <v>15.2274290418925</v>
+        <v>-6.9</v>
       </c>
       <c r="C48" t="n">
-        <v>15899</v>
+        <v>13200</v>
       </c>
       <c r="D48" t="n">
-        <v>123113</v>
+        <v>165800</v>
       </c>
       <c r="E48" t="n">
-        <v>12</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="F48" t="n">
-        <v>10.4003364029295</v>
+        <v>-2.1</v>
       </c>
       <c r="G48" t="n">
-        <v>36546</v>
+        <v>33000</v>
       </c>
       <c r="H48" t="n">
-        <v>291174</v>
+        <v>395500</v>
       </c>
       <c r="I48" t="n">
-        <v>13.9</v>
+        <v>11.3</v>
+      </c>
+      <c r="J48" t="n">
+        <v>13135</v>
+      </c>
+      <c r="K48" t="n">
+        <v>33422</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="inlineStr">
         <is>
-          <t>2008年9月</t>
-        </is>
-      </c>
-      <c r="B49" t="n">
-        <v>6.18123965709496</v>
-      </c>
-      <c r="C49" t="n">
-        <v>14950</v>
-      </c>
+          <t>2008-12</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr"/>
+      <c r="C49" t="inlineStr"/>
       <c r="D49" t="n">
-        <v>138408</v>
+        <v>178318</v>
       </c>
       <c r="E49" t="n">
-        <v>11.6</v>
-      </c>
-      <c r="F49" t="n">
-        <v>5.9104130099725</v>
-      </c>
-      <c r="G49" t="n">
-        <v>35444</v>
-      </c>
+        <v>7.7</v>
+      </c>
+      <c r="F49" t="inlineStr"/>
+      <c r="G49" t="inlineStr"/>
       <c r="H49" t="n">
-        <v>327001</v>
+        <v>428454</v>
       </c>
       <c r="I49" t="n">
-        <v>13.1</v>
+        <v>10.4</v>
+      </c>
+      <c r="J49" t="n">
+        <v>12518</v>
+      </c>
+      <c r="K49" t="n">
+        <v>32954</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="inlineStr">
         <is>
-          <t>2009年10月</t>
+          <t>2009-01</t>
         </is>
       </c>
       <c r="B50" t="n">
-        <v>16.6</v>
+        <v>-13.6</v>
       </c>
       <c r="C50" t="n">
-        <v>16918</v>
+        <v>13541</v>
       </c>
       <c r="D50" t="n">
-        <v>162991</v>
+        <v>13541</v>
       </c>
       <c r="E50" t="n">
-        <v>5.4</v>
+        <v>-13.6</v>
       </c>
       <c r="F50" t="n">
-        <v>11.6</v>
+        <v>-6.20000000000001</v>
       </c>
       <c r="G50" t="n">
-        <v>40422</v>
+        <v>33381</v>
       </c>
       <c r="H50" t="n">
-        <v>393552</v>
+        <v>33381</v>
       </c>
       <c r="I50" t="n">
-        <v>6.80000000000001</v>
+        <v>-6.20000000000001</v>
+      </c>
+      <c r="J50" t="n">
+        <v>13541</v>
+      </c>
+      <c r="K50" t="n">
+        <v>33381</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="inlineStr">
         <is>
-          <t>2009年11月</t>
+          <t>2009-02</t>
         </is>
       </c>
       <c r="B51" t="n">
-        <v>26.2</v>
+        <v>-7.70000000000001</v>
       </c>
       <c r="C51" t="n">
-        <v>16796</v>
+        <v>12094</v>
       </c>
       <c r="D51" t="n">
-        <v>180200</v>
+        <v>25395</v>
       </c>
       <c r="E51" t="n">
-        <v>7.20000000000001</v>
+        <v>-11.8</v>
       </c>
       <c r="F51" t="n">
-        <v>16</v>
+        <v>-7.3</v>
       </c>
       <c r="G51" t="n">
-        <v>39461</v>
+        <v>30090</v>
       </c>
       <c r="H51" t="n">
-        <v>433586</v>
+        <v>63175</v>
       </c>
       <c r="I51" t="n">
-        <v>7.7</v>
+        <v>-7.20000000000001</v>
+      </c>
+      <c r="J51" t="n">
+        <v>11854</v>
+      </c>
+      <c r="K51" t="n">
+        <v>29794</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="inlineStr">
         <is>
-          <t>2009年12月</t>
-        </is>
-      </c>
-      <c r="B52" t="inlineStr"/>
-      <c r="C52" t="inlineStr"/>
+          <t>2009-03</t>
+        </is>
+      </c>
+      <c r="B52" t="n">
+        <v>-0.599999999999989</v>
+      </c>
+      <c r="C52" t="n">
+        <v>15300</v>
+      </c>
       <c r="D52" t="n">
-        <v>213647</v>
+        <v>41000</v>
       </c>
       <c r="E52" t="n">
-        <v>8.599999999999991</v>
-      </c>
-      <c r="F52" t="inlineStr"/>
-      <c r="G52" t="inlineStr"/>
+        <v>-7.20000000000001</v>
+      </c>
+      <c r="F52" t="n">
+        <v>-0.599999999999989</v>
+      </c>
+      <c r="G52" t="n">
+        <v>37200</v>
+      </c>
       <c r="H52" t="n">
-        <v>471162</v>
+        <v>100700</v>
       </c>
       <c r="I52" t="n">
-        <v>7.80000000000001</v>
+        <v>-4.5</v>
+      </c>
+      <c r="J52" t="n">
+        <v>15605</v>
+      </c>
+      <c r="K52" t="n">
+        <v>37525</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="inlineStr">
         <is>
-          <t>2009年1月</t>
-        </is>
-      </c>
-      <c r="B53" t="n">
-        <v>-13.6</v>
-      </c>
+          <t>2009-04</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr"/>
       <c r="C53" t="n">
-        <v>13541</v>
+        <v>15344</v>
       </c>
       <c r="D53" t="n">
-        <v>13541</v>
+        <v>56858</v>
       </c>
       <c r="E53" t="n">
-        <v>-13.6</v>
-      </c>
-      <c r="F53" t="n">
-        <v>-6.20000000000001</v>
-      </c>
+        <v>-4.59999999999999</v>
+      </c>
+      <c r="F53" t="inlineStr"/>
       <c r="G53" t="n">
-        <v>33381</v>
+        <v>38383</v>
       </c>
       <c r="H53" t="n">
-        <v>33381</v>
+        <v>139427</v>
       </c>
       <c r="I53" t="n">
-        <v>-6.20000000000001</v>
+        <v>-1.8</v>
+      </c>
+      <c r="J53" t="n">
+        <v>15858</v>
+      </c>
+      <c r="K53" t="n">
+        <v>38727</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="inlineStr">
         <is>
-          <t>2009年2月</t>
+          <t>2009-05</t>
         </is>
       </c>
       <c r="B54" t="n">
-        <v>-7.70000000000001</v>
+        <v>2.6</v>
       </c>
       <c r="C54" t="n">
-        <v>12094</v>
+        <v>16772</v>
       </c>
       <c r="D54" t="n">
-        <v>25395</v>
+        <v>74684</v>
       </c>
       <c r="E54" t="n">
-        <v>-11.8</v>
+        <v>-2.8</v>
       </c>
       <c r="F54" t="n">
-        <v>-7.3</v>
+        <v>6.9</v>
       </c>
       <c r="G54" t="n">
-        <v>30090</v>
+        <v>41153</v>
       </c>
       <c r="H54" t="n">
-        <v>63175</v>
+        <v>184346</v>
       </c>
       <c r="I54" t="n">
-        <v>-7.20000000000001</v>
+        <v>0.2</v>
+      </c>
+      <c r="J54" t="n">
+        <v>17826</v>
+      </c>
+      <c r="K54" t="n">
+        <v>44919</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="inlineStr">
         <is>
-          <t>2009年3月</t>
+          <t>2009-06</t>
         </is>
       </c>
       <c r="B55" t="n">
-        <v>-0.599999999999989</v>
+        <v>6.09999999999999</v>
       </c>
       <c r="C55" t="n">
-        <v>15300</v>
+        <v>16838</v>
       </c>
       <c r="D55" t="n">
-        <v>41000</v>
+        <v>92055</v>
       </c>
       <c r="E55" t="n">
-        <v>-7.20000000000001</v>
+        <v>-0.700000000000001</v>
       </c>
       <c r="F55" t="n">
-        <v>-0.599999999999989</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="G55" t="n">
-        <v>37200</v>
+        <v>40801</v>
       </c>
       <c r="H55" t="n">
-        <v>100700</v>
+        <v>225748</v>
       </c>
       <c r="I55" t="n">
-        <v>-4.5</v>
+        <v>1.90000000000001</v>
+      </c>
+      <c r="J55" t="n">
+        <v>17371</v>
+      </c>
+      <c r="K55" t="n">
+        <v>41402</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="inlineStr">
         <is>
-          <t>2009年4月</t>
-        </is>
-      </c>
-      <c r="B56" t="inlineStr"/>
+          <t>2009-07</t>
+        </is>
+      </c>
+      <c r="B56" t="n">
+        <v>8.9</v>
+      </c>
       <c r="C56" t="n">
-        <v>15344</v>
+        <v>17363</v>
       </c>
       <c r="D56" t="n">
-        <v>56858</v>
+        <v>109824</v>
       </c>
       <c r="E56" t="n">
-        <v>-4.59999999999999</v>
-      </c>
-      <c r="F56" t="inlineStr"/>
+        <v>1.09999999999999</v>
+      </c>
+      <c r="F56" t="n">
+        <v>11.8</v>
+      </c>
       <c r="G56" t="n">
-        <v>38383</v>
+        <v>41741</v>
       </c>
       <c r="H56" t="n">
-        <v>139427</v>
+        <v>267913</v>
       </c>
       <c r="I56" t="n">
-        <v>-1.8</v>
+        <v>3.49999999999999</v>
+      </c>
+      <c r="J56" t="n">
+        <v>17769</v>
+      </c>
+      <c r="K56" t="n">
+        <v>42165</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="inlineStr">
         <is>
-          <t>2009年5月</t>
+          <t>2009-08</t>
         </is>
       </c>
       <c r="B57" t="n">
-        <v>2.6</v>
+        <v>6.9</v>
       </c>
       <c r="C57" t="n">
-        <v>16772</v>
+        <v>17596</v>
       </c>
       <c r="D57" t="n">
-        <v>74684</v>
+        <v>128084</v>
       </c>
       <c r="E57" t="n">
-        <v>-2.8</v>
+        <v>2.4</v>
       </c>
       <c r="F57" t="n">
-        <v>6.9</v>
+        <v>12.5</v>
       </c>
       <c r="G57" t="n">
-        <v>41153</v>
+        <v>42146</v>
       </c>
       <c r="H57" t="n">
-        <v>184346</v>
+        <v>310535</v>
       </c>
       <c r="I57" t="n">
-        <v>0.2</v>
+        <v>4.8</v>
+      </c>
+      <c r="J57" t="n">
+        <v>18260</v>
+      </c>
+      <c r="K57" t="n">
+        <v>42622</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="inlineStr">
         <is>
-          <t>2009年6月</t>
+          <t>2009-09</t>
         </is>
       </c>
       <c r="B58" t="n">
+        <v>11.2</v>
+      </c>
+      <c r="C58" t="n">
+        <v>16764</v>
+      </c>
+      <c r="D58" t="n">
+        <v>145173</v>
+      </c>
+      <c r="E58" t="n">
+        <v>3.09999999999999</v>
+      </c>
+      <c r="F58" t="n">
+        <v>15.8</v>
+      </c>
+      <c r="G58" t="n">
+        <v>41480</v>
+      </c>
+      <c r="H58" t="n">
+        <v>352357</v>
+      </c>
+      <c r="I58" t="n">
         <v>6.09999999999999</v>
       </c>
-      <c r="C58" t="n">
-        <v>16838</v>
-      </c>
-      <c r="D58" t="n">
-        <v>92055</v>
-      </c>
-      <c r="E58" t="n">
-        <v>-0.700000000000001</v>
-      </c>
-      <c r="F58" t="n">
-        <v>8.300000000000001</v>
-      </c>
-      <c r="G58" t="n">
-        <v>40801</v>
-      </c>
-      <c r="H58" t="n">
-        <v>225748</v>
-      </c>
-      <c r="I58" t="n">
-        <v>1.90000000000001</v>
+      <c r="J58" t="n">
+        <v>17089</v>
+      </c>
+      <c r="K58" t="n">
+        <v>41822</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="inlineStr">
         <is>
-          <t>2009年7月</t>
+          <t>2009-10</t>
         </is>
       </c>
       <c r="B59" t="n">
-        <v>8.9</v>
+        <v>16.6</v>
       </c>
       <c r="C59" t="n">
-        <v>17363</v>
+        <v>16918</v>
       </c>
       <c r="D59" t="n">
-        <v>109824</v>
+        <v>162991</v>
       </c>
       <c r="E59" t="n">
-        <v>1.09999999999999</v>
+        <v>5.4</v>
       </c>
       <c r="F59" t="n">
-        <v>11.8</v>
+        <v>11.6</v>
       </c>
       <c r="G59" t="n">
-        <v>41741</v>
+        <v>40422</v>
       </c>
       <c r="H59" t="n">
-        <v>267913</v>
+        <v>393552</v>
       </c>
       <c r="I59" t="n">
-        <v>3.49999999999999</v>
+        <v>6.80000000000001</v>
+      </c>
+      <c r="J59" t="n">
+        <v>17818</v>
+      </c>
+      <c r="K59" t="n">
+        <v>41195</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="inlineStr">
         <is>
-          <t>2009年8月</t>
+          <t>2009-11</t>
         </is>
       </c>
       <c r="B60" t="n">
-        <v>6.9</v>
+        <v>26.2</v>
       </c>
       <c r="C60" t="n">
-        <v>17596</v>
+        <v>16796</v>
       </c>
       <c r="D60" t="n">
-        <v>128084</v>
+        <v>180200</v>
       </c>
       <c r="E60" t="n">
-        <v>2.4</v>
+        <v>7.20000000000001</v>
       </c>
       <c r="F60" t="n">
-        <v>12.5</v>
+        <v>16</v>
       </c>
       <c r="G60" t="n">
-        <v>42146</v>
+        <v>39461</v>
       </c>
       <c r="H60" t="n">
-        <v>310535</v>
+        <v>433586</v>
       </c>
       <c r="I60" t="n">
-        <v>4.8</v>
+        <v>7.7</v>
+      </c>
+      <c r="J60" t="n">
+        <v>17209</v>
+      </c>
+      <c r="K60" t="n">
+        <v>40034</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="1" t="inlineStr">
         <is>
-          <t>2009年9月</t>
-        </is>
-      </c>
-      <c r="B61" t="n">
-        <v>11.2</v>
-      </c>
-      <c r="C61" t="n">
-        <v>16764</v>
-      </c>
+          <t>2009-12</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr"/>
+      <c r="C61" t="inlineStr"/>
       <c r="D61" t="n">
-        <v>145173</v>
+        <v>213647</v>
       </c>
       <c r="E61" t="n">
-        <v>3.09999999999999</v>
-      </c>
-      <c r="F61" t="n">
-        <v>15.8</v>
-      </c>
-      <c r="G61" t="n">
-        <v>41480</v>
-      </c>
+        <v>8.599999999999991</v>
+      </c>
+      <c r="F61" t="inlineStr"/>
+      <c r="G61" t="inlineStr"/>
       <c r="H61" t="n">
-        <v>352357</v>
+        <v>471162</v>
       </c>
       <c r="I61" t="n">
-        <v>6.09999999999999</v>
+        <v>7.80000000000001</v>
+      </c>
+      <c r="J61" t="n">
+        <v>33447</v>
+      </c>
+      <c r="K61" t="n">
+        <v>37576</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="1" t="inlineStr">
         <is>
-          <t>2010年10月</t>
+          <t>2010-01</t>
         </is>
       </c>
       <c r="B62" t="n">
-        <v>3.90000000000001</v>
+        <v>39.6</v>
       </c>
       <c r="C62" t="n">
-        <v>18015</v>
+        <v>18761</v>
       </c>
       <c r="D62" t="n">
-        <v>187374</v>
+        <v>18761</v>
       </c>
       <c r="E62" t="n">
-        <v>14.7</v>
+        <v>39.6</v>
       </c>
       <c r="F62" t="n">
-        <v>9.900000000000009</v>
+        <v>30.4</v>
       </c>
       <c r="G62" t="n">
-        <v>45043</v>
+        <v>43948</v>
       </c>
       <c r="H62" t="n">
-        <v>450777</v>
+        <v>43948</v>
       </c>
       <c r="I62" t="n">
-        <v>14.4</v>
+        <v>30.4</v>
+      </c>
+      <c r="J62" t="n">
+        <v>18761</v>
+      </c>
+      <c r="K62" t="n">
+        <v>43948</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="1" t="inlineStr">
         <is>
-          <t>2010年11月</t>
+          <t>2010-02</t>
         </is>
       </c>
       <c r="B63" t="n">
-        <v>14.8</v>
+        <v>34.9</v>
       </c>
       <c r="C63" t="n">
-        <v>19610</v>
+        <v>16941.1027</v>
       </c>
       <c r="D63" t="n">
-        <v>206869</v>
+        <v>36156</v>
       </c>
       <c r="E63" t="n">
-        <v>14.6</v>
+        <v>39.1</v>
       </c>
       <c r="F63" t="n">
-        <v>18.9</v>
+        <v>24.2</v>
       </c>
       <c r="G63" t="n">
-        <v>47341</v>
+        <v>38636</v>
       </c>
       <c r="H63" t="n">
-        <v>498858</v>
+        <v>83334</v>
       </c>
       <c r="I63" t="n">
-        <v>15</v>
+        <v>28.6</v>
+      </c>
+      <c r="J63" t="n">
+        <v>17395</v>
+      </c>
+      <c r="K63" t="n">
+        <v>39386</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="1" t="inlineStr">
         <is>
-          <t>2010年12月</t>
-        </is>
-      </c>
-      <c r="B64" t="inlineStr"/>
-      <c r="C64" t="inlineStr"/>
+          <t>2010-03</t>
+        </is>
+      </c>
+      <c r="B64" t="n">
+        <v>16.9</v>
+      </c>
+      <c r="C64" t="n">
+        <v>18794</v>
+      </c>
       <c r="D64" t="n">
-        <v>224676</v>
+        <v>54902</v>
       </c>
       <c r="E64" t="n">
-        <v>13.5174462667111</v>
-      </c>
-      <c r="F64" t="inlineStr"/>
-      <c r="G64" t="inlineStr"/>
+        <v>30.5</v>
+      </c>
+      <c r="F64" t="n">
+        <v>13.7</v>
+      </c>
+      <c r="G64" t="n">
+        <v>43982</v>
+      </c>
       <c r="H64" t="n">
-        <v>542789</v>
+        <v>127345</v>
       </c>
       <c r="I64" t="n">
-        <v>14.1557706827402</v>
+        <v>23.1</v>
+      </c>
+      <c r="J64" t="n">
+        <v>18746</v>
+      </c>
+      <c r="K64" t="n">
+        <v>44011</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="1" t="inlineStr">
         <is>
-          <t>2010年1月</t>
+          <t>2010-04</t>
         </is>
       </c>
       <c r="B65" t="n">
-        <v>39.6</v>
+        <v>18.9</v>
       </c>
       <c r="C65" t="n">
-        <v>18761</v>
+        <v>18831</v>
       </c>
       <c r="D65" t="n">
-        <v>18761</v>
+        <v>74023</v>
       </c>
       <c r="E65" t="n">
-        <v>39.6</v>
+        <v>27.8</v>
       </c>
       <c r="F65" t="n">
-        <v>30.4</v>
+        <v>13.9</v>
       </c>
       <c r="G65" t="n">
-        <v>43948</v>
+        <v>45221</v>
       </c>
       <c r="H65" t="n">
-        <v>43948</v>
+        <v>173198</v>
       </c>
       <c r="I65" t="n">
-        <v>30.4</v>
+        <v>21</v>
+      </c>
+      <c r="J65" t="n">
+        <v>19121</v>
+      </c>
+      <c r="K65" t="n">
+        <v>45853</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="1" t="inlineStr">
         <is>
-          <t>2010年2月</t>
+          <t>2010-05</t>
         </is>
       </c>
       <c r="B66" t="n">
-        <v>34.9</v>
+        <v>9.400000000000009</v>
       </c>
       <c r="C66" t="n">
-        <v>16941.1027</v>
+        <v>18938</v>
       </c>
       <c r="D66" t="n">
-        <v>36156</v>
+        <v>93063</v>
       </c>
       <c r="E66" t="n">
-        <v>39.1</v>
+        <v>23.7</v>
       </c>
       <c r="F66" t="n">
-        <v>24.2</v>
+        <v>11.8</v>
       </c>
       <c r="G66" t="n">
-        <v>38636</v>
+        <v>46667</v>
       </c>
       <c r="H66" t="n">
-        <v>83334</v>
+        <v>220351</v>
       </c>
       <c r="I66" t="n">
-        <v>28.6</v>
+        <v>19.1</v>
+      </c>
+      <c r="J66" t="n">
+        <v>19040</v>
+      </c>
+      <c r="K66" t="n">
+        <v>47153</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="1" t="inlineStr">
         <is>
-          <t>2010年3月</t>
+          <t>2010-06</t>
         </is>
       </c>
       <c r="B67" t="n">
-        <v>16.9</v>
+        <v>10.2</v>
       </c>
       <c r="C67" t="n">
-        <v>18794</v>
+        <v>19005</v>
       </c>
       <c r="D67" t="n">
-        <v>54902</v>
+        <v>112401</v>
       </c>
       <c r="E67" t="n">
-        <v>30.5</v>
+        <v>21.6</v>
       </c>
       <c r="F67" t="n">
-        <v>13.7</v>
+        <v>12.6</v>
       </c>
       <c r="G67" t="n">
-        <v>43982</v>
+        <v>46411</v>
       </c>
       <c r="H67" t="n">
-        <v>127345</v>
+        <v>267247</v>
       </c>
       <c r="I67" t="n">
-        <v>23.1</v>
+        <v>18.2</v>
+      </c>
+      <c r="J67" t="n">
+        <v>19338</v>
+      </c>
+      <c r="K67" t="n">
+        <v>46896</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="1" t="inlineStr">
         <is>
-          <t>2010年4月</t>
+          <t>2010-07</t>
         </is>
       </c>
       <c r="B68" t="n">
-        <v>18.9</v>
+        <v>3.59999999999999</v>
       </c>
       <c r="C68" t="n">
-        <v>18831</v>
+        <v>18683</v>
       </c>
       <c r="D68" t="n">
-        <v>74023</v>
+        <v>131509</v>
       </c>
       <c r="E68" t="n">
-        <v>27.8</v>
+        <v>19</v>
       </c>
       <c r="F68" t="n">
-        <v>13.9</v>
+        <v>6.5</v>
       </c>
       <c r="G68" t="n">
-        <v>45221</v>
+        <v>44980</v>
       </c>
       <c r="H68" t="n">
-        <v>173198</v>
+        <v>312839</v>
       </c>
       <c r="I68" t="n">
-        <v>21</v>
+        <v>16.6</v>
+      </c>
+      <c r="J68" t="n">
+        <v>19108</v>
+      </c>
+      <c r="K68" t="n">
+        <v>45592</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="1" t="inlineStr">
         <is>
-          <t>2010年5月</t>
+          <t>2010-08</t>
         </is>
       </c>
       <c r="B69" t="n">
-        <v>9.400000000000009</v>
+        <v>4.8</v>
       </c>
       <c r="C69" t="n">
-        <v>18938</v>
+        <v>18800</v>
       </c>
       <c r="D69" t="n">
-        <v>93063</v>
+        <v>150500</v>
       </c>
       <c r="E69" t="n">
-        <v>23.7</v>
+        <v>17.2</v>
       </c>
       <c r="F69" t="n">
-        <v>11.8</v>
+        <v>8</v>
       </c>
       <c r="G69" t="n">
-        <v>46667</v>
+        <v>45900</v>
       </c>
       <c r="H69" t="n">
-        <v>220351</v>
+        <v>359400</v>
       </c>
       <c r="I69" t="n">
-        <v>19.1</v>
+        <v>15.6</v>
+      </c>
+      <c r="J69" t="n">
+        <v>18991</v>
+      </c>
+      <c r="K69" t="n">
+        <v>46561</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="1" t="inlineStr">
         <is>
-          <t>2010年6月</t>
+          <t>2010-09</t>
         </is>
       </c>
       <c r="B70" t="n">
-        <v>10.2</v>
+        <v>3.8</v>
       </c>
       <c r="C70" t="n">
-        <v>19005</v>
+        <v>18328</v>
       </c>
       <c r="D70" t="n">
-        <v>112401</v>
+        <v>169178</v>
       </c>
       <c r="E70" t="n">
-        <v>21.6</v>
+        <v>15.8</v>
       </c>
       <c r="F70" t="n">
-        <v>12.6</v>
+        <v>5.8</v>
       </c>
       <c r="G70" t="n">
-        <v>46411</v>
+        <v>44684</v>
       </c>
       <c r="H70" t="n">
-        <v>267247</v>
+        <v>404781</v>
       </c>
       <c r="I70" t="n">
-        <v>18.2</v>
+        <v>14.6</v>
+      </c>
+      <c r="J70" t="n">
+        <v>18678</v>
+      </c>
+      <c r="K70" t="n">
+        <v>45381</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="1" t="inlineStr">
         <is>
-          <t>2010年7月</t>
+          <t>2010-10</t>
         </is>
       </c>
       <c r="B71" t="n">
-        <v>3.59999999999999</v>
+        <v>3.90000000000001</v>
       </c>
       <c r="C71" t="n">
-        <v>18683</v>
+        <v>18015</v>
       </c>
       <c r="D71" t="n">
-        <v>131509</v>
+        <v>187374</v>
       </c>
       <c r="E71" t="n">
-        <v>19</v>
+        <v>14.7</v>
       </c>
       <c r="F71" t="n">
-        <v>6.5</v>
+        <v>9.900000000000009</v>
       </c>
       <c r="G71" t="n">
-        <v>44980</v>
+        <v>45043</v>
       </c>
       <c r="H71" t="n">
-        <v>312839</v>
+        <v>450777</v>
       </c>
       <c r="I71" t="n">
-        <v>16.6</v>
+        <v>14.4</v>
+      </c>
+      <c r="J71" t="n">
+        <v>18196</v>
+      </c>
+      <c r="K71" t="n">
+        <v>45996</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="1" t="inlineStr">
         <is>
-          <t>2010年8月</t>
+          <t>2010-11</t>
         </is>
       </c>
       <c r="B72" t="n">
-        <v>4.8</v>
+        <v>14.8</v>
       </c>
       <c r="C72" t="n">
-        <v>18800</v>
+        <v>19610</v>
       </c>
       <c r="D72" t="n">
-        <v>150500</v>
+        <v>206869</v>
       </c>
       <c r="E72" t="n">
-        <v>17.2</v>
+        <v>14.6</v>
       </c>
       <c r="F72" t="n">
-        <v>8</v>
+        <v>18.9</v>
       </c>
       <c r="G72" t="n">
-        <v>45900</v>
+        <v>47341</v>
       </c>
       <c r="H72" t="n">
-        <v>359400</v>
+        <v>498858</v>
       </c>
       <c r="I72" t="n">
-        <v>15.6</v>
+        <v>15</v>
+      </c>
+      <c r="J72" t="n">
+        <v>19495</v>
+      </c>
+      <c r="K72" t="n">
+        <v>48081</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="1" t="inlineStr">
         <is>
-          <t>2010年9月</t>
-        </is>
-      </c>
-      <c r="B73" t="n">
-        <v>3.8</v>
-      </c>
-      <c r="C73" t="n">
-        <v>18328</v>
-      </c>
+          <t>2010-12</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr"/>
+      <c r="C73" t="inlineStr"/>
       <c r="D73" t="n">
-        <v>169178</v>
+        <v>224676</v>
       </c>
       <c r="E73" t="n">
-        <v>15.8</v>
-      </c>
-      <c r="F73" t="n">
-        <v>5.8</v>
-      </c>
-      <c r="G73" t="n">
-        <v>44684</v>
-      </c>
+        <v>13.5174462667111</v>
+      </c>
+      <c r="F73" t="inlineStr"/>
+      <c r="G73" t="inlineStr"/>
       <c r="H73" t="n">
-        <v>404781</v>
+        <v>542789</v>
       </c>
       <c r="I73" t="n">
-        <v>14.6</v>
+        <v>14.1557706827402</v>
+      </c>
+      <c r="J73" t="n">
+        <v>17807</v>
+      </c>
+      <c r="K73" t="n">
+        <v>43931</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="1" t="inlineStr">
         <is>
-          <t>2011年10月</t>
+          <t>2011-01</t>
         </is>
       </c>
       <c r="B74" t="n">
-        <v>22.7</v>
+        <v>14.7</v>
       </c>
       <c r="C74" t="n">
-        <v>21967</v>
+        <v>22047</v>
       </c>
       <c r="D74" t="n">
-        <v>208367</v>
+        <v>22047</v>
       </c>
       <c r="E74" t="n">
-        <v>11.3</v>
+        <v>14.7</v>
       </c>
       <c r="F74" t="n">
-        <v>14.2</v>
+        <v>14.9</v>
       </c>
       <c r="G74" t="n">
-        <v>52305</v>
+        <v>51363</v>
       </c>
       <c r="H74" t="n">
-        <v>512901</v>
+        <v>51363</v>
       </c>
       <c r="I74" t="n">
-        <v>13.6</v>
+        <v>14.9</v>
+      </c>
+      <c r="J74" t="n">
+        <v>22047</v>
+      </c>
+      <c r="K74" t="n">
+        <v>51363</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="1" t="inlineStr">
         <is>
-          <t>2011年11月</t>
+          <t>2011-02</t>
         </is>
       </c>
       <c r="B75" t="n">
-        <v>10</v>
+        <v>3.3</v>
       </c>
       <c r="C75" t="n">
-        <v>21968</v>
+        <v>17446</v>
       </c>
       <c r="D75" t="n">
-        <v>230902</v>
+        <v>39700</v>
       </c>
       <c r="E75" t="n">
-        <v>11.4</v>
+        <v>9.900000000000009</v>
       </c>
       <c r="F75" t="n">
-        <v>6.3</v>
+        <v>11.7</v>
       </c>
       <c r="G75" t="n">
-        <v>51015</v>
+        <v>43189</v>
       </c>
       <c r="H75" t="n">
-        <v>564557</v>
+        <v>94987</v>
       </c>
       <c r="I75" t="n">
-        <v>13</v>
+        <v>13.9</v>
+      </c>
+      <c r="J75" t="n">
+        <v>17653</v>
+      </c>
+      <c r="K75" t="n">
+        <v>43624</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="1" t="inlineStr">
         <is>
-          <t>2011年12月</t>
-        </is>
-      </c>
-      <c r="B76" t="inlineStr"/>
-      <c r="C76" t="inlineStr"/>
+          <t>2011-03</t>
+        </is>
+      </c>
+      <c r="B76" t="n">
+        <v>3.59999999999999</v>
+      </c>
+      <c r="C76" t="n">
+        <v>19768</v>
+      </c>
       <c r="D76" t="n">
-        <v>250813</v>
+        <v>59541</v>
       </c>
       <c r="E76" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="F76" t="inlineStr"/>
-      <c r="G76" t="inlineStr"/>
+        <v>7.90000000000001</v>
+      </c>
+      <c r="F76" t="n">
+        <v>13</v>
+      </c>
+      <c r="G76" t="n">
+        <v>50402</v>
+      </c>
       <c r="H76" t="n">
-        <v>613390</v>
+        <v>145463</v>
       </c>
       <c r="I76" t="n">
-        <v>11.9</v>
+        <v>13.7</v>
+      </c>
+      <c r="J76" t="n">
+        <v>19841</v>
+      </c>
+      <c r="K76" t="n">
+        <v>50476</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="1" t="inlineStr">
         <is>
-          <t>2011年1月</t>
+          <t>2011-04</t>
         </is>
       </c>
       <c r="B77" t="n">
-        <v>14.7</v>
+        <v>7</v>
       </c>
       <c r="C77" t="n">
-        <v>22047</v>
+        <v>20254</v>
       </c>
       <c r="D77" t="n">
-        <v>22047</v>
+        <v>79876</v>
       </c>
       <c r="E77" t="n">
-        <v>14.7</v>
+        <v>7.8</v>
       </c>
       <c r="F77" t="n">
-        <v>14.9</v>
+        <v>11.4</v>
       </c>
       <c r="G77" t="n">
-        <v>51363</v>
+        <v>50911</v>
       </c>
       <c r="H77" t="n">
-        <v>51363</v>
+        <v>197107</v>
       </c>
       <c r="I77" t="n">
-        <v>14.9</v>
+        <v>13.5</v>
+      </c>
+      <c r="J77" t="n">
+        <v>20335</v>
+      </c>
+      <c r="K77" t="n">
+        <v>51644</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="1" t="inlineStr">
         <is>
-          <t>2011年2月</t>
+          <t>2011-05</t>
         </is>
       </c>
       <c r="B78" t="n">
-        <v>3.3</v>
+        <v>8.599999999999991</v>
       </c>
       <c r="C78" t="n">
-        <v>17446</v>
+        <v>20927</v>
       </c>
       <c r="D78" t="n">
-        <v>39700</v>
+        <v>100901</v>
       </c>
       <c r="E78" t="n">
-        <v>9.900000000000009</v>
+        <v>8</v>
       </c>
       <c r="F78" t="n">
-        <v>11.7</v>
+        <v>11.6</v>
       </c>
       <c r="G78" t="n">
-        <v>43189</v>
+        <v>52607</v>
       </c>
       <c r="H78" t="n">
-        <v>94987</v>
+        <v>250111</v>
       </c>
       <c r="I78" t="n">
-        <v>13.9</v>
+        <v>13.3</v>
+      </c>
+      <c r="J78" t="n">
+        <v>21025</v>
+      </c>
+      <c r="K78" t="n">
+        <v>53004</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="1" t="inlineStr">
         <is>
-          <t>2011年3月</t>
+          <t>2011-06</t>
         </is>
       </c>
       <c r="B79" t="n">
-        <v>3.59999999999999</v>
+        <v>4.90000000000001</v>
       </c>
       <c r="C79" t="n">
-        <v>19768</v>
+        <v>20381</v>
       </c>
       <c r="D79" t="n">
-        <v>59541</v>
+        <v>121653</v>
       </c>
       <c r="E79" t="n">
-        <v>7.90000000000001</v>
+        <v>7.8</v>
       </c>
       <c r="F79" t="n">
-        <v>13</v>
+        <v>8.900000000000009</v>
       </c>
       <c r="G79" t="n">
-        <v>50402</v>
+        <v>51200</v>
       </c>
       <c r="H79" t="n">
-        <v>145463</v>
+        <v>302095</v>
       </c>
       <c r="I79" t="n">
-        <v>13.7</v>
+        <v>12.8</v>
+      </c>
+      <c r="J79" t="n">
+        <v>20752</v>
+      </c>
+      <c r="K79" t="n">
+        <v>51984</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="1" t="inlineStr">
         <is>
-          <t>2011年4月</t>
+          <t>2011-07</t>
         </is>
       </c>
       <c r="B80" t="n">
-        <v>7</v>
+        <v>14.9</v>
       </c>
       <c r="C80" t="n">
-        <v>20254</v>
+        <v>21651</v>
       </c>
       <c r="D80" t="n">
-        <v>79876</v>
+        <v>143449</v>
       </c>
       <c r="E80" t="n">
-        <v>7.8</v>
+        <v>8.900000000000009</v>
       </c>
       <c r="F80" t="n">
-        <v>11.4</v>
+        <v>14.6</v>
       </c>
       <c r="G80" t="n">
-        <v>50911</v>
+        <v>52346</v>
       </c>
       <c r="H80" t="n">
-        <v>197107</v>
+        <v>354599</v>
       </c>
       <c r="I80" t="n">
-        <v>13.5</v>
+        <v>13.1</v>
+      </c>
+      <c r="J80" t="n">
+        <v>21796</v>
+      </c>
+      <c r="K80" t="n">
+        <v>52504</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="1" t="inlineStr">
         <is>
-          <t>2011年5月</t>
+          <t>2011-08</t>
         </is>
       </c>
       <c r="B81" t="n">
-        <v>8.599999999999991</v>
+        <v>10.1</v>
       </c>
       <c r="C81" t="n">
-        <v>20927</v>
+        <v>21102</v>
       </c>
       <c r="D81" t="n">
-        <v>100901</v>
+        <v>164763</v>
       </c>
       <c r="E81" t="n">
-        <v>8</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="F81" t="n">
-        <v>11.6</v>
+        <v>11.7</v>
       </c>
       <c r="G81" t="n">
-        <v>52607</v>
+        <v>52006</v>
       </c>
       <c r="H81" t="n">
-        <v>250111</v>
+        <v>407334</v>
       </c>
       <c r="I81" t="n">
-        <v>13.3</v>
+        <v>13.1</v>
+      </c>
+      <c r="J81" t="n">
+        <v>21314</v>
+      </c>
+      <c r="K81" t="n">
+        <v>52735</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="1" t="inlineStr">
         <is>
-          <t>2011年6月</t>
+          <t>2011-09</t>
         </is>
       </c>
       <c r="B82" t="n">
-        <v>4.90000000000001</v>
+        <v>14.6</v>
       </c>
       <c r="C82" t="n">
-        <v>20381</v>
+        <v>21210</v>
       </c>
       <c r="D82" t="n">
-        <v>121653</v>
+        <v>186537</v>
       </c>
       <c r="E82" t="n">
-        <v>7.8</v>
+        <v>10.1</v>
       </c>
       <c r="F82" t="n">
-        <v>8.900000000000009</v>
+        <v>14.3</v>
       </c>
       <c r="G82" t="n">
-        <v>51200</v>
+        <v>52156</v>
       </c>
       <c r="H82" t="n">
-        <v>302095</v>
+        <v>460333</v>
       </c>
       <c r="I82" t="n">
-        <v>12.8</v>
+        <v>13.5</v>
+      </c>
+      <c r="J82" t="n">
+        <v>21774</v>
+      </c>
+      <c r="K82" t="n">
+        <v>52999</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="1" t="inlineStr">
         <is>
-          <t>2011年7月</t>
+          <t>2011-10</t>
         </is>
       </c>
       <c r="B83" t="n">
-        <v>14.9</v>
+        <v>22.7</v>
       </c>
       <c r="C83" t="n">
-        <v>21651</v>
+        <v>21967</v>
       </c>
       <c r="D83" t="n">
-        <v>143449</v>
+        <v>208367</v>
       </c>
       <c r="E83" t="n">
-        <v>8.900000000000009</v>
+        <v>11.3</v>
       </c>
       <c r="F83" t="n">
-        <v>14.6</v>
+        <v>14.2</v>
       </c>
       <c r="G83" t="n">
-        <v>52346</v>
+        <v>52305</v>
       </c>
       <c r="H83" t="n">
-        <v>354599</v>
+        <v>512901</v>
       </c>
       <c r="I83" t="n">
-        <v>13.1</v>
+        <v>13.6</v>
+      </c>
+      <c r="J83" t="n">
+        <v>21830</v>
+      </c>
+      <c r="K83" t="n">
+        <v>52568</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="1" t="inlineStr">
         <is>
-          <t>2011年8月</t>
+          <t>2011-11</t>
         </is>
       </c>
       <c r="B84" t="n">
-        <v>10.1</v>
+        <v>10</v>
       </c>
       <c r="C84" t="n">
-        <v>21102</v>
+        <v>21968</v>
       </c>
       <c r="D84" t="n">
-        <v>164763</v>
+        <v>230902</v>
       </c>
       <c r="E84" t="n">
-        <v>9.199999999999999</v>
+        <v>11.4</v>
       </c>
       <c r="F84" t="n">
-        <v>11.7</v>
+        <v>6.3</v>
       </c>
       <c r="G84" t="n">
-        <v>52006</v>
+        <v>51015</v>
       </c>
       <c r="H84" t="n">
-        <v>407334</v>
+        <v>564557</v>
       </c>
       <c r="I84" t="n">
-        <v>13.1</v>
+        <v>13</v>
+      </c>
+      <c r="J84" t="n">
+        <v>22535</v>
+      </c>
+      <c r="K84" t="n">
+        <v>51656</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="1" t="inlineStr">
         <is>
-          <t>2011年9月</t>
-        </is>
-      </c>
-      <c r="B85" t="n">
-        <v>14.6</v>
-      </c>
-      <c r="C85" t="n">
-        <v>21210</v>
-      </c>
+          <t>2011-12</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr"/>
+      <c r="C85" t="inlineStr"/>
       <c r="D85" t="n">
-        <v>186537</v>
+        <v>250813</v>
       </c>
       <c r="E85" t="n">
-        <v>10.1</v>
-      </c>
-      <c r="F85" t="n">
-        <v>14.3</v>
-      </c>
-      <c r="G85" t="n">
-        <v>52156</v>
-      </c>
+        <v>10.5</v>
+      </c>
+      <c r="F85" t="inlineStr"/>
+      <c r="G85" t="inlineStr"/>
       <c r="H85" t="n">
-        <v>460333</v>
+        <v>613390</v>
       </c>
       <c r="I85" t="n">
-        <v>13.5</v>
+        <v>11.9</v>
+      </c>
+      <c r="J85" t="n">
+        <v>19911</v>
+      </c>
+      <c r="K85" t="n">
+        <v>48833</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="1" t="inlineStr">
         <is>
-          <t>2012年10月</t>
+          <t>2012-01</t>
         </is>
       </c>
       <c r="B86" t="n">
+        <v>4.49999999999997</v>
+      </c>
+      <c r="C86" t="n">
+        <v>23263</v>
+      </c>
+      <c r="D86" t="n">
+        <v>23263</v>
+      </c>
+      <c r="E86" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="F86" t="n">
         <v>1.8</v>
       </c>
-      <c r="C86" t="n">
-        <v>22941</v>
-      </c>
-      <c r="D86" t="n">
-        <v>229024</v>
-      </c>
-      <c r="E86" t="n">
-        <v>9.599999999999991</v>
-      </c>
-      <c r="F86" t="n">
-        <v>8.5</v>
-      </c>
       <c r="G86" t="n">
-        <v>57450</v>
+        <v>52745</v>
       </c>
       <c r="H86" t="n">
-        <v>551868</v>
+        <v>52745</v>
       </c>
       <c r="I86" t="n">
-        <v>7.5</v>
+        <v>1.8</v>
+      </c>
+      <c r="J86" t="n">
+        <v>23263</v>
+      </c>
+      <c r="K86" t="n">
+        <v>52745</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="1" t="inlineStr">
         <is>
-          <t>2012年11月</t>
+          <t>2012-02</t>
         </is>
       </c>
       <c r="B87" t="n">
-        <v>3.69999999999999</v>
+        <v>17.2</v>
       </c>
       <c r="C87" t="n">
-        <v>23019</v>
+        <v>20524</v>
       </c>
       <c r="D87" t="n">
-        <v>252300</v>
+        <v>44231</v>
       </c>
       <c r="E87" t="n">
-        <v>9.20000000000001</v>
+        <v>11.2</v>
       </c>
       <c r="F87" t="n">
-        <v>9.300000000000001</v>
+        <v>14.8</v>
       </c>
       <c r="G87" t="n">
-        <v>56220</v>
+        <v>49682</v>
       </c>
       <c r="H87" t="n">
-        <v>607976</v>
+        <v>102329</v>
       </c>
       <c r="I87" t="n">
-        <v>7.59999999999998</v>
+        <v>7.59999999999999</v>
+      </c>
+      <c r="J87" t="n">
+        <v>20968</v>
+      </c>
+      <c r="K87" t="n">
+        <v>49584</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="1" t="inlineStr">
         <is>
-          <t>2012年12月</t>
-        </is>
-      </c>
-      <c r="B88" t="inlineStr"/>
-      <c r="C88" t="inlineStr"/>
+          <t>2012-03</t>
+        </is>
+      </c>
+      <c r="B88" t="n">
+        <v>15.2</v>
+      </c>
+      <c r="C88" t="n">
+        <v>22864</v>
+      </c>
       <c r="D88" t="n">
-        <v>273915</v>
+        <v>67145</v>
       </c>
       <c r="E88" t="n">
-        <v>8.599999999999991</v>
-      </c>
-      <c r="F88" t="inlineStr"/>
-      <c r="G88" t="inlineStr"/>
+        <v>12.6</v>
+      </c>
+      <c r="F88" t="n">
+        <v>8.300000000000001</v>
+      </c>
+      <c r="G88" t="n">
+        <v>55403</v>
+      </c>
       <c r="H88" t="n">
-        <v>662249</v>
+        <v>157992</v>
       </c>
       <c r="I88" t="n">
-        <v>7.5</v>
+        <v>8.099999999999991</v>
+      </c>
+      <c r="J88" t="n">
+        <v>22914</v>
+      </c>
+      <c r="K88" t="n">
+        <v>55663</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="1" t="inlineStr">
         <is>
-          <t>2012年1月</t>
+          <t>2012-04</t>
         </is>
       </c>
       <c r="B89" t="n">
-        <v>4.49999999999997</v>
+        <v>12.6</v>
       </c>
       <c r="C89" t="n">
-        <v>23263</v>
+        <v>22908</v>
       </c>
       <c r="D89" t="n">
-        <v>23263</v>
+        <v>90402</v>
       </c>
       <c r="E89" t="n">
-        <v>4.5</v>
+        <v>13</v>
       </c>
       <c r="F89" t="n">
-        <v>1.8</v>
+        <v>8.599999999999991</v>
       </c>
       <c r="G89" t="n">
-        <v>52745</v>
+        <v>55722</v>
       </c>
       <c r="H89" t="n">
-        <v>52745</v>
+        <v>214904</v>
       </c>
       <c r="I89" t="n">
-        <v>1.8</v>
+        <v>8.800000000000001</v>
+      </c>
+      <c r="J89" t="n">
+        <v>23257</v>
+      </c>
+      <c r="K89" t="n">
+        <v>56912</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="1" t="inlineStr">
         <is>
-          <t>2012年2月</t>
+          <t>2012-05</t>
         </is>
       </c>
       <c r="B90" t="n">
-        <v>17.2</v>
+        <v>15.1</v>
       </c>
       <c r="C90" t="n">
-        <v>20524</v>
+        <v>24521</v>
       </c>
       <c r="D90" t="n">
-        <v>44231</v>
+        <v>115190</v>
       </c>
       <c r="E90" t="n">
-        <v>11.2</v>
+        <v>13.7</v>
       </c>
       <c r="F90" t="n">
-        <v>14.8</v>
+        <v>7.3</v>
       </c>
       <c r="G90" t="n">
-        <v>49682</v>
+        <v>57299</v>
       </c>
       <c r="H90" t="n">
-        <v>102329</v>
+        <v>272523</v>
       </c>
       <c r="I90" t="n">
-        <v>7.59999999999999</v>
+        <v>8.599999999999991</v>
+      </c>
+      <c r="J90" t="n">
+        <v>24788</v>
+      </c>
+      <c r="K90" t="n">
+        <v>57619</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="1" t="inlineStr">
         <is>
-          <t>2012年3月</t>
+          <t>2012-06</t>
         </is>
       </c>
       <c r="B91" t="n">
-        <v>15.2</v>
+        <v>12.2</v>
       </c>
       <c r="C91" t="n">
-        <v>22864</v>
+        <v>23027</v>
       </c>
       <c r="D91" t="n">
-        <v>67145</v>
+        <v>138391</v>
       </c>
       <c r="E91" t="n">
-        <v>12.6</v>
+        <v>13.6</v>
       </c>
       <c r="F91" t="n">
-        <v>8.300000000000001</v>
+        <v>6.29999999999999</v>
       </c>
       <c r="G91" t="n">
-        <v>55403</v>
+        <v>54587</v>
       </c>
       <c r="H91" t="n">
-        <v>157992</v>
+        <v>327586</v>
       </c>
       <c r="I91" t="n">
-        <v>8.099999999999991</v>
+        <v>8.400000000000009</v>
+      </c>
+      <c r="J91" t="n">
+        <v>23201</v>
+      </c>
+      <c r="K91" t="n">
+        <v>55063</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="1" t="inlineStr">
         <is>
-          <t>2012年4月</t>
+          <t>2012-07</t>
         </is>
       </c>
       <c r="B92" t="n">
-        <v>12.6</v>
+        <v>4</v>
       </c>
       <c r="C92" t="n">
-        <v>22908</v>
+        <v>22735</v>
       </c>
       <c r="D92" t="n">
-        <v>90402</v>
+        <v>160947</v>
       </c>
       <c r="E92" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F92" t="n">
-        <v>8.599999999999991</v>
+        <v>2.90000000000001</v>
       </c>
       <c r="G92" t="n">
-        <v>55722</v>
+        <v>54598</v>
       </c>
       <c r="H92" t="n">
-        <v>214904</v>
+        <v>381998</v>
       </c>
       <c r="I92" t="n">
-        <v>8.800000000000001</v>
+        <v>7.5</v>
+      </c>
+      <c r="J92" t="n">
+        <v>22556</v>
+      </c>
+      <c r="K92" t="n">
+        <v>54412</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="1" t="inlineStr">
         <is>
-          <t>2012年5月</t>
+          <t>2012-08</t>
         </is>
       </c>
       <c r="B93" t="n">
-        <v>15.1</v>
+        <v>1.89999999999999</v>
       </c>
       <c r="C93" t="n">
-        <v>24521</v>
+        <v>22089</v>
       </c>
       <c r="D93" t="n">
-        <v>115190</v>
+        <v>183382</v>
       </c>
       <c r="E93" t="n">
-        <v>13.7</v>
+        <v>10.9</v>
       </c>
       <c r="F93" t="n">
-        <v>7.3</v>
+        <v>2</v>
       </c>
       <c r="G93" t="n">
-        <v>57299</v>
+        <v>53920</v>
       </c>
       <c r="H93" t="n">
-        <v>272523</v>
+        <v>436641</v>
       </c>
       <c r="I93" t="n">
-        <v>8.599999999999991</v>
+        <v>7</v>
+      </c>
+      <c r="J93" t="n">
+        <v>22435</v>
+      </c>
+      <c r="K93" t="n">
+        <v>54643</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="1" t="inlineStr">
         <is>
-          <t>2012年6月</t>
+          <t>2012-09</t>
         </is>
       </c>
       <c r="B94" t="n">
-        <v>12.2</v>
+        <v>7.7</v>
       </c>
       <c r="C94" t="n">
-        <v>23027</v>
+        <v>22699</v>
       </c>
       <c r="D94" t="n">
-        <v>138391</v>
+        <v>206066</v>
       </c>
       <c r="E94" t="n">
-        <v>13.6</v>
+        <v>10.6</v>
       </c>
       <c r="F94" t="n">
-        <v>6.29999999999999</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="G94" t="n">
-        <v>54587</v>
+        <v>56996</v>
       </c>
       <c r="H94" t="n">
-        <v>327586</v>
+        <v>494251</v>
       </c>
       <c r="I94" t="n">
-        <v>8.400000000000009</v>
+        <v>7.3</v>
+      </c>
+      <c r="J94" t="n">
+        <v>22684</v>
+      </c>
+      <c r="K94" t="n">
+        <v>57610</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="1" t="inlineStr">
         <is>
-          <t>2012年7月</t>
+          <t>2012-10</t>
         </is>
       </c>
       <c r="B95" t="n">
-        <v>4</v>
+        <v>1.8</v>
       </c>
       <c r="C95" t="n">
-        <v>22735</v>
+        <v>22941</v>
       </c>
       <c r="D95" t="n">
-        <v>160947</v>
+        <v>229024</v>
       </c>
       <c r="E95" t="n">
-        <v>12</v>
+        <v>9.599999999999991</v>
       </c>
       <c r="F95" t="n">
-        <v>2.90000000000001</v>
+        <v>8.5</v>
       </c>
       <c r="G95" t="n">
-        <v>54598</v>
+        <v>57450</v>
       </c>
       <c r="H95" t="n">
-        <v>381998</v>
+        <v>551868</v>
       </c>
       <c r="I95" t="n">
         <v>7.5</v>
       </c>
+      <c r="J95" t="n">
+        <v>22958</v>
+      </c>
+      <c r="K95" t="n">
+        <v>57617</v>
+      </c>
     </row>
     <row r="96">
       <c r="A96" s="1" t="inlineStr">
         <is>
-          <t>2012年8月</t>
+          <t>2012-11</t>
         </is>
       </c>
       <c r="B96" t="n">
-        <v>1.89999999999999</v>
+        <v>3.69999999999999</v>
       </c>
       <c r="C96" t="n">
-        <v>22089</v>
+        <v>23019</v>
       </c>
       <c r="D96" t="n">
-        <v>183382</v>
+        <v>252300</v>
       </c>
       <c r="E96" t="n">
-        <v>10.9</v>
+        <v>9.20000000000001</v>
       </c>
       <c r="F96" t="n">
-        <v>2</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="G96" t="n">
-        <v>53920</v>
+        <v>56220</v>
       </c>
       <c r="H96" t="n">
-        <v>436641</v>
+        <v>607976</v>
       </c>
       <c r="I96" t="n">
-        <v>7</v>
+        <v>7.59999999999998</v>
+      </c>
+      <c r="J96" t="n">
+        <v>23276</v>
+      </c>
+      <c r="K96" t="n">
+        <v>56108</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="1" t="inlineStr">
         <is>
-          <t>2012年9月</t>
-        </is>
-      </c>
-      <c r="B97" t="n">
-        <v>7.7</v>
-      </c>
-      <c r="C97" t="n">
-        <v>22699</v>
-      </c>
+          <t>2012-12</t>
+        </is>
+      </c>
+      <c r="B97" t="inlineStr"/>
+      <c r="C97" t="inlineStr"/>
       <c r="D97" t="n">
-        <v>206066</v>
+        <v>273915</v>
       </c>
       <c r="E97" t="n">
-        <v>10.6</v>
-      </c>
-      <c r="F97" t="n">
-        <v>8.699999999999999</v>
-      </c>
-      <c r="G97" t="n">
-        <v>56996</v>
-      </c>
+        <v>8.599999999999991</v>
+      </c>
+      <c r="F97" t="inlineStr"/>
+      <c r="G97" t="inlineStr"/>
       <c r="H97" t="n">
-        <v>494251</v>
+        <v>662249</v>
       </c>
       <c r="I97" t="n">
-        <v>7.3</v>
+        <v>7.5</v>
+      </c>
+      <c r="J97" t="n">
+        <v>21615</v>
+      </c>
+      <c r="K97" t="n">
+        <v>54273</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="1" t="inlineStr">
         <is>
-          <t>2013年10月</t>
+          <t>2013-01</t>
         </is>
       </c>
       <c r="B98" t="n">
-        <v>8.400000000000009</v>
+        <v>9.599999999999961</v>
       </c>
       <c r="C98" t="n">
-        <v>25149</v>
+        <v>25980</v>
       </c>
       <c r="D98" t="n">
-        <v>251813</v>
+        <v>25980</v>
       </c>
       <c r="E98" t="n">
-        <v>9.79999999999999</v>
+        <v>9.599999999999991</v>
       </c>
       <c r="F98" t="n">
-        <v>6.69999999999997</v>
+        <v>14</v>
       </c>
       <c r="G98" t="n">
-        <v>61183</v>
+        <v>60001</v>
       </c>
       <c r="H98" t="n">
-        <v>606944</v>
+        <v>60001</v>
       </c>
       <c r="I98" t="n">
-        <v>10</v>
+        <v>14</v>
+      </c>
+      <c r="J98" t="n">
+        <v>25980</v>
+      </c>
+      <c r="K98" t="n">
+        <v>60001</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="1" t="inlineStr">
         <is>
-          <t>2013年11月</t>
+          <t>2013-02</t>
         </is>
       </c>
       <c r="B99" t="n">
-        <v>9.5</v>
+        <v>8.9</v>
       </c>
       <c r="C99" t="n">
-        <v>25553</v>
+        <v>22398</v>
       </c>
       <c r="D99" t="n">
-        <v>277803</v>
+        <v>48889</v>
       </c>
       <c r="E99" t="n">
-        <v>10</v>
+        <v>10.4</v>
       </c>
       <c r="F99" t="n">
-        <v>6.80000000000001</v>
+        <v>4.8</v>
       </c>
       <c r="G99" t="n">
-        <v>60599</v>
+        <v>52331</v>
       </c>
       <c r="H99" t="n">
-        <v>668201</v>
+        <v>113192</v>
       </c>
       <c r="I99" t="n">
-        <v>9.79999999999999</v>
+        <v>10.3</v>
+      </c>
+      <c r="J99" t="n">
+        <v>22909</v>
+      </c>
+      <c r="K99" t="n">
+        <v>53191</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="1" t="inlineStr">
         <is>
-          <t>2013年12月</t>
-        </is>
-      </c>
-      <c r="B100" t="inlineStr"/>
-      <c r="C100" t="inlineStr"/>
+          <t>2013-03</t>
+        </is>
+      </c>
+      <c r="B100" t="n">
+        <v>7.00000000000001</v>
+      </c>
+      <c r="C100" t="n">
+        <v>24840</v>
+      </c>
       <c r="D100" t="n">
-        <v>301278.6441</v>
+        <v>73455</v>
       </c>
       <c r="E100" t="n">
-        <v>9.1</v>
-      </c>
-      <c r="F100" t="inlineStr"/>
-      <c r="G100" t="inlineStr"/>
+        <v>8.800000000000029</v>
+      </c>
+      <c r="F100" t="n">
+        <v>7.80000000000001</v>
+      </c>
+      <c r="G100" t="n">
+        <v>60990</v>
+      </c>
       <c r="H100" t="n">
-        <v>725927.5315</v>
+        <v>174173</v>
       </c>
       <c r="I100" t="n">
-        <v>9.100000000000019</v>
+        <v>9.400000000000009</v>
+      </c>
+      <c r="J100" t="n">
+        <v>24566</v>
+      </c>
+      <c r="K100" t="n">
+        <v>60981</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="1" t="inlineStr">
         <is>
-          <t>2013年1月</t>
+          <t>2013-04</t>
         </is>
       </c>
       <c r="B101" t="n">
-        <v>9.599999999999961</v>
+        <v>5</v>
       </c>
       <c r="C101" t="n">
-        <v>25980</v>
+        <v>24334</v>
       </c>
       <c r="D101" t="n">
-        <v>25980</v>
+        <v>98011</v>
       </c>
       <c r="E101" t="n">
-        <v>9.599999999999991</v>
+        <v>8.1</v>
       </c>
       <c r="F101" t="n">
-        <v>14</v>
+        <v>8.400000000000009</v>
       </c>
       <c r="G101" t="n">
-        <v>60001</v>
+        <v>60733</v>
       </c>
       <c r="H101" t="n">
-        <v>60001</v>
+        <v>235459</v>
       </c>
       <c r="I101" t="n">
-        <v>14</v>
+        <v>9.400000000000009</v>
+      </c>
+      <c r="J101" t="n">
+        <v>24556</v>
+      </c>
+      <c r="K101" t="n">
+        <v>61286</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="1" t="inlineStr">
         <is>
-          <t>2013年2月</t>
+          <t>2013-05</t>
         </is>
       </c>
       <c r="B102" t="n">
-        <v>8.9</v>
+        <v>3.49999999999999</v>
       </c>
       <c r="C102" t="n">
-        <v>22398</v>
+        <v>25564</v>
       </c>
       <c r="D102" t="n">
-        <v>48889</v>
+        <v>123890</v>
       </c>
       <c r="E102" t="n">
-        <v>10.4</v>
+        <v>7.40000000000001</v>
       </c>
       <c r="F102" t="n">
-        <v>4.8</v>
+        <v>7.59999999999998</v>
       </c>
       <c r="G102" t="n">
-        <v>52331</v>
+        <v>62187</v>
       </c>
       <c r="H102" t="n">
-        <v>113192</v>
+        <v>298205</v>
       </c>
       <c r="I102" t="n">
-        <v>10.3</v>
+        <v>9.20000000000001</v>
+      </c>
+      <c r="J102" t="n">
+        <v>25879</v>
+      </c>
+      <c r="K102" t="n">
+        <v>62746</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="1" t="inlineStr">
         <is>
-          <t>2013年3月</t>
+          <t>2013-06</t>
         </is>
       </c>
       <c r="B103" t="n">
-        <v>7.00000000000001</v>
+        <v>9.49999999999998</v>
       </c>
       <c r="C103" t="n">
-        <v>24840</v>
+        <v>25011</v>
       </c>
       <c r="D103" t="n">
-        <v>73455</v>
+        <v>149066</v>
       </c>
       <c r="E103" t="n">
-        <v>8.800000000000029</v>
+        <v>7.89999999999997</v>
       </c>
       <c r="F103" t="n">
-        <v>7.80000000000001</v>
+        <v>11.8</v>
       </c>
       <c r="G103" t="n">
-        <v>60990</v>
+        <v>60837</v>
       </c>
       <c r="H103" t="n">
-        <v>174173</v>
+        <v>359677</v>
       </c>
       <c r="I103" t="n">
-        <v>9.400000000000009</v>
+        <v>9.9</v>
+      </c>
+      <c r="J103" t="n">
+        <v>25176</v>
+      </c>
+      <c r="K103" t="n">
+        <v>61472</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="1" t="inlineStr">
         <is>
-          <t>2013年4月</t>
+          <t>2013-07</t>
         </is>
       </c>
       <c r="B104" t="n">
-        <v>5</v>
+        <v>10.4</v>
       </c>
       <c r="C104" t="n">
-        <v>24334</v>
+        <v>25478</v>
       </c>
       <c r="D104" t="n">
-        <v>98011</v>
+        <v>175052</v>
       </c>
       <c r="E104" t="n">
-        <v>8.1</v>
+        <v>8.5</v>
       </c>
       <c r="F104" t="n">
-        <v>8.400000000000009</v>
+        <v>11</v>
       </c>
       <c r="G104" t="n">
-        <v>60733</v>
+        <v>61409</v>
       </c>
       <c r="H104" t="n">
-        <v>235459</v>
+        <v>421334</v>
       </c>
       <c r="I104" t="n">
-        <v>9.400000000000009</v>
+        <v>10.1</v>
+      </c>
+      <c r="J104" t="n">
+        <v>25986</v>
+      </c>
+      <c r="K104" t="n">
+        <v>61657</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="1" t="inlineStr">
         <is>
-          <t>2013年5月</t>
+          <t>2013-08</t>
         </is>
       </c>
       <c r="B105" t="n">
-        <v>3.49999999999999</v>
+        <v>16.4</v>
       </c>
       <c r="C105" t="n">
-        <v>25564</v>
+        <v>25694</v>
       </c>
       <c r="D105" t="n">
-        <v>123890</v>
+        <v>201144</v>
       </c>
       <c r="E105" t="n">
-        <v>7.40000000000001</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="F105" t="n">
-        <v>7.59999999999998</v>
+        <v>13.1</v>
       </c>
       <c r="G105" t="n">
-        <v>62187</v>
+        <v>61668</v>
       </c>
       <c r="H105" t="n">
-        <v>298205</v>
+        <v>483822</v>
       </c>
       <c r="I105" t="n">
-        <v>9.20000000000001</v>
+        <v>10.6</v>
+      </c>
+      <c r="J105" t="n">
+        <v>26092</v>
+      </c>
+      <c r="K105" t="n">
+        <v>62488</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="1" t="inlineStr">
         <is>
-          <t>2013年6月</t>
+          <t>2013-09</t>
         </is>
       </c>
       <c r="B106" t="n">
-        <v>9.49999999999998</v>
+        <v>10.5</v>
       </c>
       <c r="C106" t="n">
-        <v>25011</v>
+        <v>25099</v>
       </c>
       <c r="D106" t="n">
-        <v>149066</v>
+        <v>226308</v>
       </c>
       <c r="E106" t="n">
-        <v>7.89999999999997</v>
+        <v>9.80000000000001</v>
       </c>
       <c r="F106" t="n">
-        <v>11.8</v>
+        <v>7.40000000000001</v>
       </c>
       <c r="G106" t="n">
-        <v>60837</v>
+        <v>61407</v>
       </c>
       <c r="H106" t="n">
-        <v>359677</v>
+        <v>545672</v>
       </c>
       <c r="I106" t="n">
-        <v>9.9</v>
+        <v>10.4</v>
+      </c>
+      <c r="J106" t="n">
+        <v>25164</v>
+      </c>
+      <c r="K106" t="n">
+        <v>61850</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="1" t="inlineStr">
         <is>
-          <t>2013年7月</t>
+          <t>2013-10</t>
         </is>
       </c>
       <c r="B107" t="n">
-        <v>10.4</v>
+        <v>8.400000000000009</v>
       </c>
       <c r="C107" t="n">
-        <v>25478</v>
+        <v>25149</v>
       </c>
       <c r="D107" t="n">
-        <v>175052</v>
+        <v>251813</v>
       </c>
       <c r="E107" t="n">
-        <v>8.5</v>
+        <v>9.79999999999999</v>
       </c>
       <c r="F107" t="n">
-        <v>11</v>
+        <v>6.69999999999997</v>
       </c>
       <c r="G107" t="n">
-        <v>61409</v>
+        <v>61183</v>
       </c>
       <c r="H107" t="n">
-        <v>421334</v>
+        <v>606944</v>
       </c>
       <c r="I107" t="n">
-        <v>10.1</v>
+        <v>10</v>
+      </c>
+      <c r="J107" t="n">
+        <v>25505</v>
+      </c>
+      <c r="K107" t="n">
+        <v>61272</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="1" t="inlineStr">
         <is>
-          <t>2013年8月</t>
+          <t>2013-11</t>
         </is>
       </c>
       <c r="B108" t="n">
-        <v>16.4</v>
+        <v>9.5</v>
       </c>
       <c r="C108" t="n">
-        <v>25694</v>
+        <v>25553</v>
       </c>
       <c r="D108" t="n">
-        <v>201144</v>
+        <v>277803</v>
       </c>
       <c r="E108" t="n">
-        <v>9.699999999999999</v>
+        <v>10</v>
       </c>
       <c r="F108" t="n">
-        <v>13.1</v>
+        <v>6.80000000000001</v>
       </c>
       <c r="G108" t="n">
-        <v>61668</v>
+        <v>60599</v>
       </c>
       <c r="H108" t="n">
-        <v>483822</v>
+        <v>668201</v>
       </c>
       <c r="I108" t="n">
-        <v>10.6</v>
+        <v>9.79999999999999</v>
+      </c>
+      <c r="J108" t="n">
+        <v>25990</v>
+      </c>
+      <c r="K108" t="n">
+        <v>61257</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="1" t="inlineStr">
         <is>
-          <t>2013年9月</t>
-        </is>
-      </c>
-      <c r="B109" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="C109" t="n">
-        <v>25099</v>
-      </c>
+          <t>2013-12</t>
+        </is>
+      </c>
+      <c r="B109" t="inlineStr"/>
+      <c r="C109" t="inlineStr"/>
       <c r="D109" t="n">
-        <v>226308</v>
+        <v>301278.6441</v>
       </c>
       <c r="E109" t="n">
-        <v>9.80000000000001</v>
-      </c>
-      <c r="F109" t="n">
-        <v>7.40000000000001</v>
-      </c>
-      <c r="G109" t="n">
-        <v>61407</v>
-      </c>
+        <v>9.1</v>
+      </c>
+      <c r="F109" t="inlineStr"/>
+      <c r="G109" t="inlineStr"/>
       <c r="H109" t="n">
-        <v>545672</v>
+        <v>725927.5315</v>
       </c>
       <c r="I109" t="n">
-        <v>10.4</v>
+        <v>9.100000000000019</v>
+      </c>
+      <c r="J109" t="n">
+        <v>23475.64409999998</v>
+      </c>
+      <c r="K109" t="n">
+        <v>57726.53150000004</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="1" t="inlineStr">
         <is>
-          <t>2014年10月</t>
+          <t>2014-01</t>
         </is>
       </c>
       <c r="B110" t="n">
-        <v>2.70000000000001</v>
+        <v>10.4</v>
       </c>
       <c r="C110" t="n">
-        <v>26282</v>
+        <v>29246</v>
       </c>
       <c r="D110" t="n">
-        <v>268548</v>
+        <v>29246</v>
       </c>
       <c r="E110" t="n">
-        <v>6.49999999999999</v>
+        <v>10.4</v>
       </c>
       <c r="F110" t="n">
-        <v>4.59999999999998</v>
+        <v>7.1</v>
       </c>
       <c r="G110" t="n">
-        <v>64670</v>
+        <v>65186</v>
       </c>
       <c r="H110" t="n">
-        <v>641743</v>
+        <v>65186</v>
       </c>
       <c r="I110" t="n">
-        <v>5.6</v>
+        <v>7.1</v>
+      </c>
+      <c r="J110" t="n">
+        <v>29246</v>
+      </c>
+      <c r="K110" t="n">
+        <v>65186</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="1" t="inlineStr">
         <is>
-          <t>2014年11月</t>
+          <t>2014-02</t>
         </is>
       </c>
       <c r="B111" t="n">
-        <v>1.2</v>
+        <v>6.40000000000001</v>
       </c>
       <c r="C111" t="n">
-        <v>26027</v>
+        <v>23548</v>
       </c>
       <c r="D111" t="n">
-        <v>294833</v>
+        <v>53274</v>
       </c>
       <c r="E111" t="n">
-        <v>6.09999999999999</v>
+        <v>9.599999999999961</v>
       </c>
       <c r="F111" t="n">
-        <v>6.00000000000001</v>
+        <v>6.29999999999997</v>
       </c>
       <c r="G111" t="n">
-        <v>64220</v>
+        <v>55610</v>
       </c>
       <c r="H111" t="n">
-        <v>706247</v>
+        <v>121114</v>
       </c>
       <c r="I111" t="n">
-        <v>5.69999999999999</v>
+        <v>7.00000000000001</v>
+      </c>
+      <c r="J111" t="n">
+        <v>24028</v>
+      </c>
+      <c r="K111" t="n">
+        <v>55928</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="1" t="inlineStr">
         <is>
-          <t>2014年12月</t>
-        </is>
-      </c>
-      <c r="B112" t="inlineStr"/>
-      <c r="C112" t="inlineStr"/>
+          <t>2014-03</t>
+        </is>
+      </c>
+      <c r="B112" t="n">
+        <v>5.90000000000004</v>
+      </c>
+      <c r="C112" t="n">
+        <v>26533</v>
+      </c>
       <c r="D112" t="n">
-        <v>320343</v>
+        <v>80071</v>
       </c>
       <c r="E112" t="n">
-        <v>5.90000000000004</v>
-      </c>
-      <c r="F112" t="inlineStr"/>
-      <c r="G112" t="inlineStr"/>
+        <v>8.699999999999971</v>
+      </c>
+      <c r="F112" t="n">
+        <v>7.90000000000002</v>
+      </c>
+      <c r="G112" t="n">
+        <v>66378</v>
+      </c>
       <c r="H112" t="n">
-        <v>768866</v>
+        <v>187384</v>
       </c>
       <c r="I112" t="n">
-        <v>5.60000000000003</v>
+        <v>7.19999999999998</v>
+      </c>
+      <c r="J112" t="n">
+        <v>26797</v>
+      </c>
+      <c r="K112" t="n">
+        <v>66270</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="1" t="inlineStr">
         <is>
-          <t>2014年1月</t>
+          <t>2014-04</t>
         </is>
       </c>
       <c r="B113" t="n">
-        <v>10.4</v>
+        <v>9.400000000000009</v>
       </c>
       <c r="C113" t="n">
-        <v>29246</v>
+        <v>26966</v>
       </c>
       <c r="D113" t="n">
-        <v>29246</v>
+        <v>106675</v>
       </c>
       <c r="E113" t="n">
-        <v>10.4</v>
+        <v>8.50000000000002</v>
       </c>
       <c r="F113" t="n">
-        <v>7.1</v>
+        <v>7.5</v>
       </c>
       <c r="G113" t="n">
-        <v>65186</v>
+        <v>65896</v>
       </c>
       <c r="H113" t="n">
-        <v>65186</v>
+        <v>253347</v>
       </c>
       <c r="I113" t="n">
-        <v>7.1</v>
+        <v>7.3</v>
+      </c>
+      <c r="J113" t="n">
+        <v>26604</v>
+      </c>
+      <c r="K113" t="n">
+        <v>65963</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="1" t="inlineStr">
         <is>
-          <t>2014年2月</t>
+          <t>2014-05</t>
         </is>
       </c>
       <c r="B114" t="n">
-        <v>6.40000000000001</v>
+        <v>4.70000000000002</v>
       </c>
       <c r="C114" t="n">
-        <v>23548</v>
+        <v>26937</v>
       </c>
       <c r="D114" t="n">
-        <v>53274</v>
+        <v>134186</v>
       </c>
       <c r="E114" t="n">
-        <v>9.599999999999961</v>
+        <v>8.20000000000001</v>
       </c>
       <c r="F114" t="n">
-        <v>6.29999999999997</v>
+        <v>2.49999999999999</v>
       </c>
       <c r="G114" t="n">
-        <v>55610</v>
+        <v>64394</v>
       </c>
       <c r="H114" t="n">
-        <v>121114</v>
+        <v>318574</v>
       </c>
       <c r="I114" t="n">
-        <v>7.00000000000001</v>
+        <v>6.59999999999998</v>
+      </c>
+      <c r="J114" t="n">
+        <v>27511</v>
+      </c>
+      <c r="K114" t="n">
+        <v>65227</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="1" t="inlineStr">
         <is>
-          <t>2014年3月</t>
+          <t>2014-06</t>
         </is>
       </c>
       <c r="B115" t="n">
-        <v>5.90000000000004</v>
+        <v>5.6</v>
       </c>
       <c r="C115" t="n">
-        <v>26533</v>
+        <v>26954</v>
       </c>
       <c r="D115" t="n">
-        <v>80071</v>
+        <v>161358</v>
       </c>
       <c r="E115" t="n">
-        <v>8.699999999999971</v>
+        <v>7.9</v>
       </c>
       <c r="F115" t="n">
-        <v>7.90000000000002</v>
+        <v>5.80000000000001</v>
       </c>
       <c r="G115" t="n">
-        <v>66378</v>
+        <v>64613</v>
       </c>
       <c r="H115" t="n">
-        <v>187384</v>
+        <v>383877</v>
       </c>
       <c r="I115" t="n">
-        <v>7.19999999999998</v>
+        <v>6.69999999999999</v>
+      </c>
+      <c r="J115" t="n">
+        <v>27172</v>
+      </c>
+      <c r="K115" t="n">
+        <v>65303</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="1" t="inlineStr">
         <is>
-          <t>2014年4月</t>
+          <t>2014-07</t>
         </is>
       </c>
       <c r="B116" t="n">
-        <v>9.400000000000009</v>
+        <v>2</v>
       </c>
       <c r="C116" t="n">
-        <v>26966</v>
+        <v>26398</v>
       </c>
       <c r="D116" t="n">
-        <v>106675</v>
+        <v>188322</v>
       </c>
       <c r="E116" t="n">
-        <v>8.50000000000002</v>
+        <v>7.3</v>
       </c>
       <c r="F116" t="n">
-        <v>7.5</v>
+        <v>1.90000000000001</v>
       </c>
       <c r="G116" t="n">
-        <v>65896</v>
+        <v>63394</v>
       </c>
       <c r="H116" t="n">
-        <v>253347</v>
+        <v>447398</v>
       </c>
       <c r="I116" t="n">
-        <v>7.3</v>
+        <v>6.00000000000001</v>
+      </c>
+      <c r="J116" t="n">
+        <v>26964</v>
+      </c>
+      <c r="K116" t="n">
+        <v>63521</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="1" t="inlineStr">
         <is>
-          <t>2014年5月</t>
+          <t>2014-08</t>
         </is>
       </c>
       <c r="B117" t="n">
-        <v>4.70000000000002</v>
+        <v>5.90000000000002</v>
       </c>
       <c r="C117" t="n">
-        <v>26937</v>
+        <v>27284</v>
       </c>
       <c r="D117" t="n">
-        <v>134186</v>
+        <v>216008</v>
       </c>
       <c r="E117" t="n">
-        <v>8.20000000000001</v>
+        <v>7.40000000000001</v>
       </c>
       <c r="F117" t="n">
-        <v>2.49999999999999</v>
+        <v>5.39999999999998</v>
       </c>
       <c r="G117" t="n">
-        <v>64394</v>
+        <v>65482</v>
       </c>
       <c r="H117" t="n">
-        <v>318574</v>
+        <v>513121</v>
       </c>
       <c r="I117" t="n">
-        <v>6.59999999999998</v>
+        <v>6.00000000000001</v>
+      </c>
+      <c r="J117" t="n">
+        <v>27686</v>
+      </c>
+      <c r="K117" t="n">
+        <v>65723</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="1" t="inlineStr">
         <is>
-          <t>2014年6月</t>
+          <t>2014-09</t>
         </is>
       </c>
       <c r="B118" t="n">
-        <v>5.6</v>
+        <v>2.09999999999999</v>
       </c>
       <c r="C118" t="n">
-        <v>26954</v>
+        <v>25992</v>
       </c>
       <c r="D118" t="n">
-        <v>161358</v>
+        <v>242088</v>
       </c>
       <c r="E118" t="n">
-        <v>7.9</v>
+        <v>6.80000000000001</v>
       </c>
       <c r="F118" t="n">
-        <v>5.80000000000001</v>
+        <v>3</v>
       </c>
       <c r="G118" t="n">
-        <v>64613</v>
+        <v>63346</v>
       </c>
       <c r="H118" t="n">
-        <v>383877</v>
+        <v>576942</v>
       </c>
       <c r="I118" t="n">
-        <v>6.69999999999999</v>
+        <v>5.69999999999999</v>
+      </c>
+      <c r="J118" t="n">
+        <v>26080</v>
+      </c>
+      <c r="K118" t="n">
+        <v>63821</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="1" t="inlineStr">
         <is>
-          <t>2014年7月</t>
+          <t>2014-10</t>
         </is>
       </c>
       <c r="B119" t="n">
-        <v>2</v>
+        <v>2.70000000000001</v>
       </c>
       <c r="C119" t="n">
-        <v>26398</v>
+        <v>26282</v>
       </c>
       <c r="D119" t="n">
-        <v>188322</v>
+        <v>268548</v>
       </c>
       <c r="E119" t="n">
-        <v>7.3</v>
+        <v>6.49999999999999</v>
       </c>
       <c r="F119" t="n">
-        <v>1.90000000000001</v>
+        <v>4.59999999999998</v>
       </c>
       <c r="G119" t="n">
-        <v>63394</v>
+        <v>64670</v>
       </c>
       <c r="H119" t="n">
-        <v>447398</v>
+        <v>641743</v>
       </c>
       <c r="I119" t="n">
-        <v>6.00000000000001</v>
+        <v>5.6</v>
+      </c>
+      <c r="J119" t="n">
+        <v>26460</v>
+      </c>
+      <c r="K119" t="n">
+        <v>64801</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="1" t="inlineStr">
         <is>
-          <t>2014年8月</t>
+          <t>2014-11</t>
         </is>
       </c>
       <c r="B120" t="n">
-        <v>5.90000000000002</v>
+        <v>1.2</v>
       </c>
       <c r="C120" t="n">
-        <v>27284</v>
+        <v>26027</v>
       </c>
       <c r="D120" t="n">
-        <v>216008</v>
+        <v>294833</v>
       </c>
       <c r="E120" t="n">
-        <v>7.40000000000001</v>
+        <v>6.09999999999999</v>
       </c>
       <c r="F120" t="n">
-        <v>5.39999999999998</v>
+        <v>6.00000000000001</v>
       </c>
       <c r="G120" t="n">
-        <v>65482</v>
+        <v>64220</v>
       </c>
       <c r="H120" t="n">
-        <v>513121</v>
+        <v>706247</v>
       </c>
       <c r="I120" t="n">
-        <v>6.00000000000001</v>
+        <v>5.69999999999999</v>
+      </c>
+      <c r="J120" t="n">
+        <v>26285</v>
+      </c>
+      <c r="K120" t="n">
+        <v>64504</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="1" t="inlineStr">
         <is>
-          <t>2014年9月</t>
-        </is>
-      </c>
-      <c r="B121" t="n">
-        <v>2.09999999999999</v>
-      </c>
-      <c r="C121" t="n">
-        <v>25992</v>
-      </c>
+          <t>2014-12</t>
+        </is>
+      </c>
+      <c r="B121" t="inlineStr"/>
+      <c r="C121" t="inlineStr"/>
       <c r="D121" t="n">
-        <v>242088</v>
+        <v>320343</v>
       </c>
       <c r="E121" t="n">
-        <v>6.80000000000001</v>
-      </c>
-      <c r="F121" t="n">
-        <v>3</v>
-      </c>
-      <c r="G121" t="n">
-        <v>63346</v>
-      </c>
+        <v>5.90000000000004</v>
+      </c>
+      <c r="F121" t="inlineStr"/>
+      <c r="G121" t="inlineStr"/>
       <c r="H121" t="n">
-        <v>576942</v>
+        <v>768866</v>
       </c>
       <c r="I121" t="n">
-        <v>5.69999999999999</v>
+        <v>5.60000000000003</v>
+      </c>
+      <c r="J121" t="n">
+        <v>25510</v>
+      </c>
+      <c r="K121" t="n">
+        <v>62619</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="1" t="inlineStr">
         <is>
-          <t>2015年10月</t>
+          <t>2015-01</t>
         </is>
       </c>
       <c r="B122" t="n">
-        <v>-0.500000000000012</v>
+        <v>-4.4</v>
       </c>
       <c r="C122" t="n">
-        <v>26525</v>
+        <v>28523</v>
       </c>
       <c r="D122" t="n">
-        <v>271919</v>
+        <v>28523</v>
       </c>
       <c r="E122" t="n">
-        <v>0.7000000000000119</v>
+        <v>-4.4</v>
       </c>
       <c r="F122" t="n">
-        <v>-2.40000000000001</v>
+        <v>3.09999999999999</v>
       </c>
       <c r="G122" t="n">
-        <v>63675</v>
+        <v>68101</v>
       </c>
       <c r="H122" t="n">
-        <v>656445</v>
+        <v>68101</v>
       </c>
       <c r="I122" t="n">
-        <v>1.49999999999999</v>
+        <v>3.09999999999999</v>
+      </c>
+      <c r="J122" t="n">
+        <v>28523</v>
+      </c>
+      <c r="K122" t="n">
+        <v>68101</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="1" t="inlineStr">
         <is>
-          <t>2015年11月</t>
+          <t>2015-02</t>
         </is>
       </c>
       <c r="B123" t="n">
-        <v>-1.99999999999999</v>
+        <v>0.4</v>
       </c>
       <c r="C123" t="n">
-        <v>26002</v>
+        <v>24003</v>
       </c>
       <c r="D123" t="n">
-        <v>298016</v>
+        <v>52691</v>
       </c>
       <c r="E123" t="n">
-        <v>0.499999999999989</v>
+        <v>-1.9</v>
       </c>
       <c r="F123" t="n">
-        <v>-3.79999999999999</v>
+        <v>2.6</v>
       </c>
       <c r="G123" t="n">
-        <v>63126</v>
+        <v>57456</v>
       </c>
       <c r="H123" t="n">
-        <v>719992</v>
+        <v>126071</v>
       </c>
       <c r="I123" t="n">
-        <v>1.10000000000001</v>
+        <v>3.30000000000001</v>
+      </c>
+      <c r="J123" t="n">
+        <v>24168</v>
+      </c>
+      <c r="K123" t="n">
+        <v>57970</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="1" t="inlineStr">
         <is>
-          <t>2015年12月</t>
-        </is>
-      </c>
-      <c r="B124" t="inlineStr"/>
-      <c r="C124" t="inlineStr"/>
+          <t>2015-03</t>
+        </is>
+      </c>
+      <c r="B124" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="C124" t="n">
+        <v>26384</v>
+      </c>
       <c r="D124" t="n">
-        <v>324600</v>
+        <v>79227</v>
       </c>
       <c r="E124" t="n">
-        <v>0.7</v>
-      </c>
-      <c r="F124" t="inlineStr"/>
-      <c r="G124" t="inlineStr"/>
+        <v>-1.00000000000001</v>
+      </c>
+      <c r="F124" t="n">
+        <v>-2.89999999999999</v>
+      </c>
+      <c r="G124" t="n">
+        <v>65080</v>
+      </c>
       <c r="H124" t="n">
-        <v>783500</v>
+        <v>191419</v>
       </c>
       <c r="I124" t="n">
-        <v>1</v>
+        <v>1.2</v>
+      </c>
+      <c r="J124" t="n">
+        <v>26536</v>
+      </c>
+      <c r="K124" t="n">
+        <v>65348</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="1" t="inlineStr">
         <is>
-          <t>2015年1月</t>
+          <t>2015-04</t>
         </is>
       </c>
       <c r="B125" t="n">
-        <v>-4.4</v>
+        <v>-4.5</v>
       </c>
       <c r="C125" t="n">
-        <v>28523</v>
+        <v>26381</v>
       </c>
       <c r="D125" t="n">
-        <v>28523</v>
+        <v>105652</v>
       </c>
       <c r="E125" t="n">
-        <v>-4.4</v>
+        <v>-1.79999999999999</v>
       </c>
       <c r="F125" t="n">
-        <v>3.09999999999999</v>
+        <v>-2.80000000000001</v>
       </c>
       <c r="G125" t="n">
-        <v>68101</v>
+        <v>65455</v>
       </c>
       <c r="H125" t="n">
-        <v>68101</v>
+        <v>256971</v>
       </c>
       <c r="I125" t="n">
-        <v>3.09999999999999</v>
+        <v>0.2</v>
+      </c>
+      <c r="J125" t="n">
+        <v>26425</v>
+      </c>
+      <c r="K125" t="n">
+        <v>65552</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="1" t="inlineStr">
         <is>
-          <t>2015年2月</t>
+          <t>2015-05</t>
         </is>
       </c>
       <c r="B126" t="n">
-        <v>0.4</v>
+        <v>-2.80000000000001</v>
       </c>
       <c r="C126" t="n">
-        <v>24003</v>
+        <v>26509</v>
       </c>
       <c r="D126" t="n">
-        <v>52691</v>
+        <v>132608</v>
       </c>
       <c r="E126" t="n">
-        <v>-1.9</v>
+        <v>-1.70000000000001</v>
       </c>
       <c r="F126" t="n">
-        <v>2.6</v>
+        <v>2.20000000000002</v>
       </c>
       <c r="G126" t="n">
-        <v>57456</v>
+        <v>67015</v>
       </c>
       <c r="H126" t="n">
-        <v>126071</v>
+        <v>325132</v>
       </c>
       <c r="I126" t="n">
-        <v>3.30000000000001</v>
+        <v>0.999999999999979</v>
+      </c>
+      <c r="J126" t="n">
+        <v>26956</v>
+      </c>
+      <c r="K126" t="n">
+        <v>68161</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="1" t="inlineStr">
         <is>
-          <t>2015年3月</t>
+          <t>2015-06</t>
         </is>
       </c>
       <c r="B127" t="n">
-        <v>0.4</v>
+        <v>0.799999999999979</v>
       </c>
       <c r="C127" t="n">
-        <v>26384</v>
+        <v>27853</v>
       </c>
       <c r="D127" t="n">
-        <v>79227</v>
+        <v>160610</v>
       </c>
       <c r="E127" t="n">
-        <v>-1.00000000000001</v>
+        <v>-1.2</v>
       </c>
       <c r="F127" t="n">
-        <v>-2.89999999999999</v>
+        <v>3.49999999999999</v>
       </c>
       <c r="G127" t="n">
-        <v>65080</v>
+        <v>67510</v>
       </c>
       <c r="H127" t="n">
-        <v>191419</v>
+        <v>393556</v>
       </c>
       <c r="I127" t="n">
-        <v>1.2</v>
+        <v>1.6</v>
+      </c>
+      <c r="J127" t="n">
+        <v>28002</v>
+      </c>
+      <c r="K127" t="n">
+        <v>68424</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="1" t="inlineStr">
         <is>
-          <t>2015年4月</t>
+          <t>2015-07</t>
         </is>
       </c>
       <c r="B128" t="n">
-        <v>-4.5</v>
+        <v>4.6</v>
       </c>
       <c r="C128" t="n">
-        <v>26381</v>
+        <v>28129</v>
       </c>
       <c r="D128" t="n">
-        <v>105652</v>
+        <v>189033</v>
       </c>
       <c r="E128" t="n">
-        <v>-1.79999999999999</v>
+        <v>-0.2</v>
       </c>
       <c r="F128" t="n">
-        <v>-2.80000000000001</v>
+        <v>3.90000000000001</v>
       </c>
       <c r="G128" t="n">
-        <v>65455</v>
+        <v>66444</v>
       </c>
       <c r="H128" t="n">
-        <v>256971</v>
+        <v>460534</v>
       </c>
       <c r="I128" t="n">
-        <v>0.2</v>
+        <v>2.10000000000001</v>
+      </c>
+      <c r="J128" t="n">
+        <v>28423</v>
+      </c>
+      <c r="K128" t="n">
+        <v>66978</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="1" t="inlineStr">
         <is>
-          <t>2015年5月</t>
+          <t>2015-08</t>
         </is>
       </c>
       <c r="B129" t="n">
-        <v>-2.80000000000001</v>
+        <v>0.900000000000012</v>
       </c>
       <c r="C129" t="n">
-        <v>26509</v>
+        <v>27776</v>
       </c>
       <c r="D129" t="n">
-        <v>132608</v>
+        <v>217453</v>
       </c>
       <c r="E129" t="n">
-        <v>-1.70000000000001</v>
+        <v>0.2</v>
       </c>
       <c r="F129" t="n">
-        <v>2.20000000000002</v>
+        <v>-0.2</v>
       </c>
       <c r="G129" t="n">
-        <v>67015</v>
+        <v>66263</v>
       </c>
       <c r="H129" t="n">
-        <v>325132</v>
+        <v>527754</v>
       </c>
       <c r="I129" t="n">
-        <v>0.999999999999979</v>
+        <v>2</v>
+      </c>
+      <c r="J129" t="n">
+        <v>28420</v>
+      </c>
+      <c r="K129" t="n">
+        <v>67220</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="1" t="inlineStr">
         <is>
-          <t>2015年6月</t>
+          <t>2015-09</t>
         </is>
       </c>
       <c r="B130" t="n">
-        <v>0.799999999999979</v>
+        <v>2.90000000000001</v>
       </c>
       <c r="C130" t="n">
-        <v>27853</v>
+        <v>27049</v>
       </c>
       <c r="D130" t="n">
-        <v>160610</v>
+        <v>244793</v>
       </c>
       <c r="E130" t="n">
-        <v>-1.2</v>
+        <v>0.599999999999978</v>
       </c>
       <c r="F130" t="n">
-        <v>3.49999999999999</v>
+        <v>0.600000000000001</v>
       </c>
       <c r="G130" t="n">
-        <v>67510</v>
+        <v>64264</v>
       </c>
       <c r="H130" t="n">
-        <v>393556</v>
+        <v>592793</v>
       </c>
       <c r="I130" t="n">
-        <v>1.6</v>
+        <v>1.90000000000003</v>
+      </c>
+      <c r="J130" t="n">
+        <v>27340</v>
+      </c>
+      <c r="K130" t="n">
+        <v>65039</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="1" t="inlineStr">
         <is>
-          <t>2015年7月</t>
+          <t>2015-10</t>
         </is>
       </c>
       <c r="B131" t="n">
-        <v>4.6</v>
+        <v>-0.500000000000012</v>
       </c>
       <c r="C131" t="n">
-        <v>28129</v>
+        <v>26525</v>
       </c>
       <c r="D131" t="n">
-        <v>189033</v>
+        <v>271919</v>
       </c>
       <c r="E131" t="n">
-        <v>-0.2</v>
+        <v>0.7000000000000119</v>
       </c>
       <c r="F131" t="n">
-        <v>3.90000000000001</v>
+        <v>-2.40000000000001</v>
       </c>
       <c r="G131" t="n">
-        <v>66444</v>
+        <v>63675</v>
       </c>
       <c r="H131" t="n">
-        <v>460534</v>
+        <v>656445</v>
       </c>
       <c r="I131" t="n">
-        <v>2.10000000000001</v>
+        <v>1.49999999999999</v>
+      </c>
+      <c r="J131" t="n">
+        <v>27126</v>
+      </c>
+      <c r="K131" t="n">
+        <v>63652</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="1" t="inlineStr">
         <is>
-          <t>2015年8月</t>
+          <t>2015-11</t>
         </is>
       </c>
       <c r="B132" t="n">
-        <v>0.900000000000012</v>
+        <v>-1.99999999999999</v>
       </c>
       <c r="C132" t="n">
-        <v>27776</v>
+        <v>26002</v>
       </c>
       <c r="D132" t="n">
-        <v>217453</v>
+        <v>298016</v>
       </c>
       <c r="E132" t="n">
-        <v>0.2</v>
+        <v>0.499999999999989</v>
       </c>
       <c r="F132" t="n">
-        <v>-0.2</v>
+        <v>-3.79999999999999</v>
       </c>
       <c r="G132" t="n">
-        <v>66263</v>
+        <v>63126</v>
       </c>
       <c r="H132" t="n">
-        <v>527754</v>
+        <v>719992</v>
       </c>
       <c r="I132" t="n">
-        <v>2</v>
+        <v>1.10000000000001</v>
+      </c>
+      <c r="J132" t="n">
+        <v>26097</v>
+      </c>
+      <c r="K132" t="n">
+        <v>63547</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="1" t="inlineStr">
         <is>
-          <t>2015年9月</t>
-        </is>
-      </c>
-      <c r="B133" t="n">
-        <v>2.90000000000001</v>
-      </c>
-      <c r="C133" t="n">
-        <v>27049</v>
-      </c>
+          <t>2015-12</t>
+        </is>
+      </c>
+      <c r="B133" t="inlineStr"/>
+      <c r="C133" t="inlineStr"/>
       <c r="D133" t="n">
-        <v>244793</v>
+        <v>324600</v>
       </c>
       <c r="E133" t="n">
-        <v>0.599999999999978</v>
-      </c>
-      <c r="F133" t="n">
-        <v>0.600000000000001</v>
-      </c>
-      <c r="G133" t="n">
-        <v>64264</v>
-      </c>
+        <v>0.7</v>
+      </c>
+      <c r="F133" t="inlineStr"/>
+      <c r="G133" t="inlineStr"/>
       <c r="H133" t="n">
-        <v>592793</v>
+        <v>783500</v>
       </c>
       <c r="I133" t="n">
-        <v>1.90000000000003</v>
+        <v>1</v>
+      </c>
+      <c r="J133" t="n">
+        <v>26584</v>
+      </c>
+      <c r="K133" t="n">
+        <v>63508</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="1" t="inlineStr">
         <is>
-          <t>2016年10月</t>
+          <t>2016-01</t>
         </is>
       </c>
       <c r="B134" t="n">
-        <v>4.9</v>
+        <v>-0.299999999999989</v>
       </c>
       <c r="C134" t="n">
-        <v>27922</v>
+        <v>28605</v>
       </c>
       <c r="D134" t="n">
-        <v>281073</v>
+        <v>28605</v>
       </c>
       <c r="E134" t="n">
-        <v>3.3</v>
+        <v>-0.299999999999989</v>
       </c>
       <c r="F134" t="n">
-        <v>6.3</v>
+        <v>-1.5</v>
       </c>
       <c r="G134" t="n">
-        <v>68122</v>
+        <v>67573</v>
       </c>
       <c r="H134" t="n">
-        <v>674230</v>
+        <v>67573</v>
       </c>
       <c r="I134" t="n">
-        <v>2.6</v>
+        <v>-1.5</v>
+      </c>
+      <c r="J134" t="n">
+        <v>28605</v>
+      </c>
+      <c r="K134" t="n">
+        <v>67573</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="1" t="inlineStr">
         <is>
-          <t>2016年11月</t>
+          <t>2016-02</t>
         </is>
       </c>
       <c r="B135" t="n">
-        <v>8</v>
+        <v>1.40000000000001</v>
       </c>
       <c r="C135" t="n">
-        <v>28293</v>
+        <v>24493</v>
       </c>
       <c r="D135" t="n">
-        <v>309893</v>
+        <v>53167</v>
       </c>
       <c r="E135" t="n">
-        <v>3.9</v>
+        <v>0.599999999999994</v>
       </c>
       <c r="F135" t="n">
-        <v>6.9</v>
+        <v>2.8</v>
       </c>
       <c r="G135" t="n">
-        <v>67678</v>
+        <v>59341</v>
       </c>
       <c r="H135" t="n">
-        <v>742601</v>
+        <v>127312</v>
       </c>
       <c r="I135" t="n">
-        <v>3.1</v>
+        <v>0.799999999999997</v>
+      </c>
+      <c r="J135" t="n">
+        <v>24562</v>
+      </c>
+      <c r="K135" t="n">
+        <v>59739</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="1" t="inlineStr">
         <is>
-          <t>2016年12月</t>
-        </is>
-      </c>
-      <c r="B136" t="inlineStr"/>
-      <c r="C136" t="inlineStr"/>
+          <t>2016-03</t>
+        </is>
+      </c>
+      <c r="B136" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="C136" t="n">
+        <v>27177</v>
+      </c>
       <c r="D136" t="n">
-        <v>337345</v>
+        <v>80534</v>
       </c>
       <c r="E136" t="n">
-        <v>3.7</v>
-      </c>
-      <c r="F136" t="inlineStr"/>
-      <c r="G136" t="inlineStr"/>
+        <v>1.59999999999999</v>
+      </c>
+      <c r="F136" t="n">
+        <v>2.90000000000001</v>
+      </c>
+      <c r="G136" t="n">
+        <v>67096</v>
+      </c>
       <c r="H136" t="n">
-        <v>808137</v>
+        <v>194302</v>
       </c>
       <c r="I136" t="n">
-        <v>3</v>
+        <v>1.5</v>
+      </c>
+      <c r="J136" t="n">
+        <v>27367</v>
+      </c>
+      <c r="K136" t="n">
+        <v>66990</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="1" t="inlineStr">
         <is>
-          <t>2016年1月</t>
+          <t>2016-04</t>
         </is>
       </c>
       <c r="B137" t="n">
-        <v>-0.299999999999989</v>
+        <v>4.1</v>
       </c>
       <c r="C137" t="n">
-        <v>28605</v>
+        <v>27900</v>
       </c>
       <c r="D137" t="n">
-        <v>28605</v>
+        <v>108900</v>
       </c>
       <c r="E137" t="n">
-        <v>-0.299999999999989</v>
+        <v>2.6</v>
       </c>
       <c r="F137" t="n">
-        <v>-1.5</v>
+        <v>1.8</v>
       </c>
       <c r="G137" t="n">
-        <v>67573</v>
+        <v>67800</v>
       </c>
       <c r="H137" t="n">
-        <v>67573</v>
+        <v>262700</v>
       </c>
       <c r="I137" t="n">
-        <v>-1.5</v>
+        <v>1.8</v>
+      </c>
+      <c r="J137" t="n">
+        <v>28366</v>
+      </c>
+      <c r="K137" t="n">
+        <v>68398</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="1" t="inlineStr">
         <is>
-          <t>2016年2月</t>
+          <t>2016-05</t>
         </is>
       </c>
       <c r="B138" t="n">
-        <v>1.40000000000001</v>
+        <v>5.4</v>
       </c>
       <c r="C138" t="n">
-        <v>24493</v>
+        <v>28096</v>
       </c>
       <c r="D138" t="n">
-        <v>53167</v>
+        <v>137759</v>
       </c>
       <c r="E138" t="n">
-        <v>0.599999999999994</v>
+        <v>3.8</v>
       </c>
       <c r="F138" t="n">
-        <v>2.8</v>
+        <v>1.2</v>
       </c>
       <c r="G138" t="n">
-        <v>59341</v>
+        <v>68768</v>
       </c>
       <c r="H138" t="n">
-        <v>127312</v>
+        <v>332233</v>
       </c>
       <c r="I138" t="n">
-        <v>0.799999999999997</v>
+        <v>1.9</v>
+      </c>
+      <c r="J138" t="n">
+        <v>28859</v>
+      </c>
+      <c r="K138" t="n">
+        <v>69533</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="1" t="inlineStr">
         <is>
-          <t>2016年3月</t>
+          <t>2016-06</t>
         </is>
       </c>
       <c r="B139" t="n">
-        <v>2.8</v>
+        <v>0.3</v>
       </c>
       <c r="C139" t="n">
-        <v>27177</v>
+        <v>28200</v>
       </c>
       <c r="D139" t="n">
-        <v>80534</v>
+        <v>166660</v>
       </c>
       <c r="E139" t="n">
-        <v>1.59999999999999</v>
+        <v>3.6</v>
       </c>
       <c r="F139" t="n">
-        <v>2.90000000000001</v>
+        <v>0</v>
       </c>
       <c r="G139" t="n">
-        <v>67096</v>
+        <v>68000</v>
       </c>
       <c r="H139" t="n">
-        <v>194302</v>
+        <v>400886</v>
       </c>
       <c r="I139" t="n">
-        <v>1.5</v>
+        <v>1.7</v>
+      </c>
+      <c r="J139" t="n">
+        <v>28901</v>
+      </c>
+      <c r="K139" t="n">
+        <v>68653</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" s="1" t="inlineStr">
         <is>
-          <t>2016年4月</t>
+          <t>2016-07</t>
         </is>
       </c>
       <c r="B140" t="n">
-        <v>4.1</v>
+        <v>-0.2</v>
       </c>
       <c r="C140" t="n">
-        <v>27900</v>
+        <v>28707</v>
       </c>
       <c r="D140" t="n">
-        <v>108900</v>
+        <v>195787</v>
       </c>
       <c r="E140" t="n">
-        <v>2.6</v>
+        <v>3.2</v>
       </c>
       <c r="F140" t="n">
-        <v>1.8</v>
+        <v>0.6</v>
       </c>
       <c r="G140" t="n">
-        <v>67800</v>
+        <v>67781</v>
       </c>
       <c r="H140" t="n">
-        <v>262700</v>
+        <v>469259</v>
       </c>
       <c r="I140" t="n">
-        <v>1.8</v>
+        <v>1.7</v>
+      </c>
+      <c r="J140" t="n">
+        <v>29127</v>
+      </c>
+      <c r="K140" t="n">
+        <v>68373</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" s="1" t="inlineStr">
         <is>
-          <t>2016年5月</t>
+          <t>2016-08</t>
         </is>
       </c>
       <c r="B141" t="n">
-        <v>5.4</v>
+        <v>2.3</v>
       </c>
       <c r="C141" t="n">
-        <v>28096</v>
+        <v>28710</v>
       </c>
       <c r="D141" t="n">
-        <v>137759</v>
+        <v>224785</v>
       </c>
       <c r="E141" t="n">
-        <v>3.8</v>
+        <v>3.2</v>
       </c>
       <c r="F141" t="n">
-        <v>1.2</v>
+        <v>2</v>
       </c>
       <c r="G141" t="n">
-        <v>68768</v>
+        <v>68356</v>
       </c>
       <c r="H141" t="n">
-        <v>332233</v>
+        <v>537946</v>
       </c>
       <c r="I141" t="n">
-        <v>1.9</v>
+        <v>1.8</v>
+      </c>
+      <c r="J141" t="n">
+        <v>28998</v>
+      </c>
+      <c r="K141" t="n">
+        <v>68687</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" s="1" t="inlineStr">
         <is>
-          <t>2016年6月</t>
+          <t>2016-09</t>
         </is>
       </c>
       <c r="B142" t="n">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="C142" t="n">
-        <v>28200</v>
+        <v>27769</v>
       </c>
       <c r="D142" t="n">
-        <v>166660</v>
+        <v>252920</v>
       </c>
       <c r="E142" t="n">
-        <v>3.6</v>
+        <v>3.1</v>
       </c>
       <c r="F142" t="n">
-        <v>0</v>
+        <v>3.9</v>
       </c>
       <c r="G142" t="n">
-        <v>68000</v>
+        <v>66741</v>
       </c>
       <c r="H142" t="n">
-        <v>400886</v>
+        <v>605426</v>
       </c>
       <c r="I142" t="n">
-        <v>1.7</v>
+        <v>2.1</v>
+      </c>
+      <c r="J142" t="n">
+        <v>28135</v>
+      </c>
+      <c r="K142" t="n">
+        <v>67480</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" s="1" t="inlineStr">
         <is>
-          <t>2016年7月</t>
+          <t>2016-10</t>
         </is>
       </c>
       <c r="B143" t="n">
-        <v>-0.2</v>
+        <v>4.9</v>
       </c>
       <c r="C143" t="n">
-        <v>28707</v>
+        <v>27922</v>
       </c>
       <c r="D143" t="n">
-        <v>195787</v>
+        <v>281073</v>
       </c>
       <c r="E143" t="n">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="F143" t="n">
-        <v>0.6</v>
+        <v>6.3</v>
       </c>
       <c r="G143" t="n">
-        <v>67781</v>
+        <v>68122</v>
       </c>
       <c r="H143" t="n">
-        <v>469259</v>
+        <v>674230</v>
       </c>
       <c r="I143" t="n">
-        <v>1.7</v>
+        <v>2.6</v>
+      </c>
+      <c r="J143" t="n">
+        <v>28153</v>
+      </c>
+      <c r="K143" t="n">
+        <v>68804</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" s="1" t="inlineStr">
         <is>
-          <t>2016年8月</t>
+          <t>2016-11</t>
         </is>
       </c>
       <c r="B144" t="n">
-        <v>2.3</v>
+        <v>8</v>
       </c>
       <c r="C144" t="n">
-        <v>28710</v>
+        <v>28293</v>
       </c>
       <c r="D144" t="n">
-        <v>224785</v>
+        <v>309893</v>
       </c>
       <c r="E144" t="n">
-        <v>3.2</v>
+        <v>3.9</v>
       </c>
       <c r="F144" t="n">
-        <v>2</v>
+        <v>6.9</v>
       </c>
       <c r="G144" t="n">
-        <v>68356</v>
+        <v>67678</v>
       </c>
       <c r="H144" t="n">
-        <v>537946</v>
+        <v>742601</v>
       </c>
       <c r="I144" t="n">
-        <v>1.8</v>
+        <v>3.1</v>
+      </c>
+      <c r="J144" t="n">
+        <v>28820</v>
+      </c>
+      <c r="K144" t="n">
+        <v>68371</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" s="1" t="inlineStr">
         <is>
-          <t>2016年9月</t>
-        </is>
-      </c>
-      <c r="B145" t="n">
-        <v>0.4</v>
-      </c>
-      <c r="C145" t="n">
-        <v>27769</v>
-      </c>
+          <t>2016-12</t>
+        </is>
+      </c>
+      <c r="B145" t="inlineStr"/>
+      <c r="C145" t="inlineStr"/>
       <c r="D145" t="n">
-        <v>252920</v>
+        <v>337345</v>
       </c>
       <c r="E145" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="F145" t="n">
-        <v>3.9</v>
-      </c>
-      <c r="G145" t="n">
-        <v>66741</v>
-      </c>
+        <v>3.7</v>
+      </c>
+      <c r="F145" t="inlineStr"/>
+      <c r="G145" t="inlineStr"/>
       <c r="H145" t="n">
-        <v>605426</v>
+        <v>808137</v>
       </c>
       <c r="I145" t="n">
-        <v>2.1</v>
+        <v>3</v>
+      </c>
+      <c r="J145" t="n">
+        <v>27452</v>
+      </c>
+      <c r="K145" t="n">
+        <v>65536</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" s="1" t="inlineStr">
         <is>
-          <t>2017年10月</t>
+          <t>2017-01</t>
         </is>
       </c>
       <c r="B146" t="n">
-        <v>4.3</v>
+        <v>6.1</v>
       </c>
       <c r="C146" t="n">
-        <v>29664</v>
+        <v>30427</v>
       </c>
       <c r="D146" t="n">
-        <v>299751</v>
+        <v>30427</v>
       </c>
       <c r="E146" t="n">
-        <v>6.4</v>
+        <v>6.1</v>
       </c>
       <c r="F146" t="n">
-        <v>5</v>
+        <v>4.2</v>
       </c>
       <c r="G146" t="n">
-        <v>72275</v>
+        <v>70803</v>
       </c>
       <c r="H146" t="n">
-        <v>723435</v>
+        <v>70803</v>
       </c>
       <c r="I146" t="n">
-        <v>7.2</v>
+        <v>4.2</v>
+      </c>
+      <c r="J146" t="n">
+        <v>30427</v>
+      </c>
+      <c r="K146" t="n">
+        <v>70803</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" s="1" t="inlineStr">
         <is>
-          <t>2017年11月</t>
+          <t>2017-02</t>
         </is>
       </c>
       <c r="B147" t="n">
-        <v>-0.1</v>
+        <v>3.5</v>
       </c>
       <c r="C147" t="n">
-        <v>29098</v>
+        <v>25540</v>
       </c>
       <c r="D147" t="n">
-        <v>329043</v>
+        <v>56337</v>
       </c>
       <c r="E147" t="n">
-        <v>5.9</v>
+        <v>5.6</v>
       </c>
       <c r="F147" t="n">
-        <v>2.9</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="G147" t="n">
-        <v>70250</v>
+        <v>64404</v>
       </c>
       <c r="H147" t="n">
-        <v>794634</v>
+        <v>136206</v>
       </c>
       <c r="I147" t="n">
-        <v>6.9</v>
+        <v>7.1</v>
+      </c>
+      <c r="J147" t="n">
+        <v>25910</v>
+      </c>
+      <c r="K147" t="n">
+        <v>65403</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" s="1" t="inlineStr">
         <is>
-          <t>2017年12月</t>
+          <t>2017-03</t>
         </is>
       </c>
       <c r="B148" t="n">
-        <v>-1.4</v>
+        <v>7.6</v>
       </c>
       <c r="C148" t="n">
-        <v>27908</v>
+        <v>29702</v>
       </c>
       <c r="D148" t="n">
-        <v>357074</v>
+        <v>86339</v>
       </c>
       <c r="E148" t="n">
-        <v>5.3</v>
+        <v>6.6</v>
       </c>
       <c r="F148" t="n">
-        <v>-0.2</v>
+        <v>7.6</v>
       </c>
       <c r="G148" t="n">
-        <v>67605</v>
+        <v>72816</v>
       </c>
       <c r="H148" t="n">
-        <v>862534</v>
+        <v>209099</v>
       </c>
       <c r="I148" t="n">
-        <v>6.4</v>
+        <v>7.3</v>
+      </c>
+      <c r="J148" t="n">
+        <v>30002</v>
+      </c>
+      <c r="K148" t="n">
+        <v>72893</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" s="1" t="inlineStr">
         <is>
-          <t>2017年1月</t>
+          <t>2017-04</t>
         </is>
       </c>
       <c r="B149" t="n">
-        <v>6.1</v>
+        <v>4.3</v>
       </c>
       <c r="C149" t="n">
-        <v>30427</v>
+        <v>29922</v>
       </c>
       <c r="D149" t="n">
-        <v>30427</v>
+        <v>117024</v>
       </c>
       <c r="E149" t="n">
-        <v>6.1</v>
+        <v>6.7</v>
       </c>
       <c r="F149" t="n">
-        <v>4.2</v>
+        <v>5.5</v>
       </c>
       <c r="G149" t="n">
-        <v>70803</v>
+        <v>72398</v>
       </c>
       <c r="H149" t="n">
-        <v>70803</v>
+        <v>282652</v>
       </c>
       <c r="I149" t="n">
-        <v>4.2</v>
+        <v>7.3</v>
+      </c>
+      <c r="J149" t="n">
+        <v>30685</v>
+      </c>
+      <c r="K149" t="n">
+        <v>73553</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" s="1" t="inlineStr">
         <is>
-          <t>2017年2月</t>
+          <t>2017-05</t>
         </is>
       </c>
       <c r="B150" t="n">
-        <v>3.5</v>
+        <v>6</v>
       </c>
       <c r="C150" t="n">
-        <v>25540</v>
+        <v>30505</v>
       </c>
       <c r="D150" t="n">
-        <v>56337</v>
+        <v>147690</v>
       </c>
       <c r="E150" t="n">
-        <v>5.6</v>
+        <v>6.7</v>
       </c>
       <c r="F150" t="n">
-        <v>8.699999999999999</v>
+        <v>7.2</v>
       </c>
       <c r="G150" t="n">
-        <v>64404</v>
+        <v>74415</v>
       </c>
       <c r="H150" t="n">
-        <v>136206</v>
+        <v>357505</v>
       </c>
       <c r="I150" t="n">
-        <v>7.1</v>
+        <v>7.4</v>
+      </c>
+      <c r="J150" t="n">
+        <v>30666</v>
+      </c>
+      <c r="K150" t="n">
+        <v>74853</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" s="1" t="inlineStr">
         <is>
-          <t>2017年3月</t>
+          <t>2017-06</t>
         </is>
       </c>
       <c r="B151" t="n">
-        <v>7.6</v>
+        <v>4.7</v>
       </c>
       <c r="C151" t="n">
-        <v>29702</v>
+        <v>29974</v>
       </c>
       <c r="D151" t="n">
-        <v>86339</v>
+        <v>178068</v>
       </c>
       <c r="E151" t="n">
         <v>6.6</v>
       </c>
       <c r="F151" t="n">
-        <v>7.6</v>
+        <v>6.3</v>
       </c>
       <c r="G151" t="n">
-        <v>72816</v>
+        <v>72906</v>
       </c>
       <c r="H151" t="n">
-        <v>209099</v>
+        <v>430689</v>
       </c>
       <c r="I151" t="n">
         <v>7.3</v>
       </c>
+      <c r="J151" t="n">
+        <v>30378</v>
+      </c>
+      <c r="K151" t="n">
+        <v>73184</v>
+      </c>
     </row>
     <row r="152">
       <c r="A152" s="1" t="inlineStr">
         <is>
-          <t>2017年4月</t>
+          <t>2017-07</t>
         </is>
       </c>
       <c r="B152" t="n">
-        <v>4.3</v>
+        <v>6.3</v>
       </c>
       <c r="C152" t="n">
-        <v>29922</v>
+        <v>30822</v>
       </c>
       <c r="D152" t="n">
-        <v>117024</v>
+        <v>209255</v>
       </c>
       <c r="E152" t="n">
         <v>6.7</v>
       </c>
       <c r="F152" t="n">
-        <v>5.5</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="G152" t="n">
-        <v>72398</v>
+        <v>73679</v>
       </c>
       <c r="H152" t="n">
-        <v>282652</v>
+        <v>504783</v>
       </c>
       <c r="I152" t="n">
-        <v>7.3</v>
+        <v>7.5</v>
+      </c>
+      <c r="J152" t="n">
+        <v>31187</v>
+      </c>
+      <c r="K152" t="n">
+        <v>74094</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" s="1" t="inlineStr">
         <is>
-          <t>2017年5月</t>
+          <t>2017-08</t>
         </is>
       </c>
       <c r="B153" t="n">
-        <v>6</v>
+        <v>4.1</v>
       </c>
       <c r="C153" t="n">
-        <v>30505</v>
+        <v>30254</v>
       </c>
       <c r="D153" t="n">
-        <v>147690</v>
+        <v>239443</v>
       </c>
       <c r="E153" t="n">
-        <v>6.7</v>
+        <v>6.3</v>
       </c>
       <c r="F153" t="n">
-        <v>7.2</v>
+        <v>5.6</v>
       </c>
       <c r="G153" t="n">
-        <v>74415</v>
+        <v>72991</v>
       </c>
       <c r="H153" t="n">
-        <v>357505</v>
+        <v>578392</v>
       </c>
       <c r="I153" t="n">
         <v>7.4</v>
       </c>
+      <c r="J153" t="n">
+        <v>30188</v>
+      </c>
+      <c r="K153" t="n">
+        <v>73609</v>
+      </c>
     </row>
     <row r="154">
       <c r="A154" s="1" t="inlineStr">
         <is>
-          <t>2017年6月</t>
+          <t>2017-09</t>
         </is>
       </c>
       <c r="B154" t="n">
-        <v>4.7</v>
+        <v>6.2</v>
       </c>
       <c r="C154" t="n">
-        <v>29974</v>
+        <v>29736</v>
       </c>
       <c r="D154" t="n">
-        <v>178068</v>
+        <v>269402</v>
       </c>
       <c r="E154" t="n">
-        <v>6.6</v>
+        <v>6.4</v>
       </c>
       <c r="F154" t="n">
-        <v>6.3</v>
+        <v>5.9</v>
       </c>
       <c r="G154" t="n">
-        <v>72906</v>
+        <v>71404</v>
       </c>
       <c r="H154" t="n">
-        <v>430689</v>
+        <v>650398</v>
       </c>
       <c r="I154" t="n">
         <v>7.3</v>
       </c>
+      <c r="J154" t="n">
+        <v>29959</v>
+      </c>
+      <c r="K154" t="n">
+        <v>72006</v>
+      </c>
     </row>
     <row r="155">
       <c r="A155" s="1" t="inlineStr">
         <is>
-          <t>2017年7月</t>
+          <t>2017-10</t>
         </is>
       </c>
       <c r="B155" t="n">
-        <v>6.3</v>
+        <v>4.3</v>
       </c>
       <c r="C155" t="n">
-        <v>30822</v>
+        <v>29664</v>
       </c>
       <c r="D155" t="n">
-        <v>209255</v>
+        <v>299751</v>
       </c>
       <c r="E155" t="n">
-        <v>6.7</v>
+        <v>6.4</v>
       </c>
       <c r="F155" t="n">
-        <v>8.199999999999999</v>
+        <v>5</v>
       </c>
       <c r="G155" t="n">
-        <v>73679</v>
+        <v>72275</v>
       </c>
       <c r="H155" t="n">
-        <v>504783</v>
+        <v>723435</v>
       </c>
       <c r="I155" t="n">
-        <v>7.5</v>
+        <v>7.2</v>
+      </c>
+      <c r="J155" t="n">
+        <v>30349</v>
+      </c>
+      <c r="K155" t="n">
+        <v>73037</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" s="1" t="inlineStr">
         <is>
-          <t>2017年8月</t>
+          <t>2017-11</t>
         </is>
       </c>
       <c r="B156" t="n">
-        <v>4.1</v>
+        <v>-0.1</v>
       </c>
       <c r="C156" t="n">
-        <v>30254</v>
+        <v>29098</v>
       </c>
       <c r="D156" t="n">
-        <v>239443</v>
+        <v>329043</v>
       </c>
       <c r="E156" t="n">
-        <v>6.3</v>
+        <v>5.9</v>
       </c>
       <c r="F156" t="n">
-        <v>5.6</v>
+        <v>2.9</v>
       </c>
       <c r="G156" t="n">
-        <v>72991</v>
+        <v>70250</v>
       </c>
       <c r="H156" t="n">
-        <v>578392</v>
+        <v>794634</v>
       </c>
       <c r="I156" t="n">
-        <v>7.4</v>
+        <v>6.9</v>
+      </c>
+      <c r="J156" t="n">
+        <v>29292</v>
+      </c>
+      <c r="K156" t="n">
+        <v>71199</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" s="1" t="inlineStr">
         <is>
-          <t>2017年9月</t>
+          <t>2017-12</t>
         </is>
       </c>
       <c r="B157" t="n">
-        <v>6.2</v>
+        <v>-1.4</v>
       </c>
       <c r="C157" t="n">
-        <v>29736</v>
+        <v>27908</v>
       </c>
       <c r="D157" t="n">
-        <v>269402</v>
+        <v>357074</v>
       </c>
       <c r="E157" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="F157" t="n">
+        <v>-0.2</v>
+      </c>
+      <c r="G157" t="n">
+        <v>67605</v>
+      </c>
+      <c r="H157" t="n">
+        <v>862534</v>
+      </c>
+      <c r="I157" t="n">
         <v>6.4</v>
       </c>
-      <c r="F157" t="n">
-        <v>5.9</v>
-      </c>
-      <c r="G157" t="n">
-        <v>71404</v>
-      </c>
-      <c r="H157" t="n">
-        <v>650398</v>
-      </c>
-      <c r="I157" t="n">
-        <v>7.3</v>
+      <c r="J157" t="n">
+        <v>28031</v>
+      </c>
+      <c r="K157" t="n">
+        <v>67900</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" s="1" t="inlineStr">
         <is>
-          <t>2018年10月</t>
+          <t>2018-01</t>
         </is>
       </c>
       <c r="B158" t="n">
-        <v>-0.4</v>
+        <v>2.4</v>
       </c>
       <c r="C158" t="n">
-        <v>30424</v>
+        <v>32008</v>
       </c>
       <c r="D158" t="n">
-        <v>310702</v>
+        <v>32008</v>
       </c>
       <c r="E158" t="n">
-        <v>2.3</v>
+        <v>2.4</v>
       </c>
       <c r="F158" t="n">
-        <v>2.2</v>
+        <v>4.9</v>
       </c>
       <c r="G158" t="n">
-        <v>76671</v>
+        <v>76731</v>
       </c>
       <c r="H158" t="n">
-        <v>770533</v>
+        <v>76731</v>
       </c>
       <c r="I158" t="n">
-        <v>4.2</v>
+        <v>4.9</v>
+      </c>
+      <c r="J158" t="n">
+        <v>32008</v>
+      </c>
+      <c r="K158" t="n">
+        <v>76731</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" s="1" t="inlineStr">
         <is>
-          <t>2018年11月</t>
+          <t>2018-02</t>
         </is>
       </c>
       <c r="B159" t="n">
-        <v>0.6</v>
+        <v>6.9</v>
       </c>
       <c r="C159" t="n">
-        <v>30617</v>
+        <v>28011</v>
       </c>
       <c r="D159" t="n">
-        <v>341663</v>
+        <v>60825</v>
       </c>
       <c r="E159" t="n">
-        <v>2.2</v>
+        <v>5.9</v>
       </c>
       <c r="F159" t="n">
-        <v>3.3</v>
+        <v>2.9</v>
       </c>
       <c r="G159" t="n">
-        <v>75482</v>
+        <v>67706</v>
       </c>
       <c r="H159" t="n">
-        <v>847097</v>
+        <v>145422</v>
       </c>
       <c r="I159" t="n">
-        <v>4.3</v>
+        <v>4.7</v>
+      </c>
+      <c r="J159" t="n">
+        <v>28817</v>
+      </c>
+      <c r="K159" t="n">
+        <v>68691</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" s="1" t="inlineStr">
         <is>
-          <t>2018年12月</t>
-        </is>
-      </c>
-      <c r="B160" t="inlineStr"/>
-      <c r="C160" t="inlineStr"/>
-      <c r="D160" t="inlineStr"/>
-      <c r="E160" t="inlineStr"/>
-      <c r="F160" t="inlineStr"/>
-      <c r="G160" t="inlineStr"/>
+          <t>2018-03</t>
+        </is>
+      </c>
+      <c r="B160" t="n">
+        <v>-1.8</v>
+      </c>
+      <c r="C160" t="n">
+        <v>30162</v>
+      </c>
+      <c r="D160" t="n">
+        <v>90862</v>
+      </c>
+      <c r="E160" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="F160" t="n">
+        <v>-1.2</v>
+      </c>
+      <c r="G160" t="n">
+        <v>74128</v>
+      </c>
       <c r="H160" t="n">
-        <v>921294.4014</v>
+        <v>219608</v>
       </c>
       <c r="I160" t="n">
-        <v>4.193388596</v>
+        <v>2.6</v>
+      </c>
+      <c r="J160" t="n">
+        <v>30037</v>
+      </c>
+      <c r="K160" t="n">
+        <v>74186</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" s="1" t="inlineStr">
         <is>
-          <t>2018年1月</t>
+          <t>2018-04</t>
         </is>
       </c>
       <c r="B161" t="n">
-        <v>2.4</v>
+        <v>0.7</v>
       </c>
       <c r="C161" t="n">
-        <v>32008</v>
+        <v>30524</v>
       </c>
       <c r="D161" t="n">
-        <v>32008</v>
+        <v>121881</v>
       </c>
       <c r="E161" t="n">
-        <v>2.4</v>
+        <v>2.9</v>
       </c>
       <c r="F161" t="n">
-        <v>4.9</v>
+        <v>3.3</v>
       </c>
       <c r="G161" t="n">
-        <v>76731</v>
+        <v>76536</v>
       </c>
       <c r="H161" t="n">
-        <v>76731</v>
+        <v>297552</v>
       </c>
       <c r="I161" t="n">
-        <v>4.9</v>
+        <v>3.3</v>
+      </c>
+      <c r="J161" t="n">
+        <v>31019</v>
+      </c>
+      <c r="K161" t="n">
+        <v>77944</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" s="1" t="inlineStr">
         <is>
-          <t>2018年2月</t>
+          <t>2018-05</t>
         </is>
       </c>
       <c r="B162" t="n">
-        <v>6.9</v>
+        <v>2.7</v>
       </c>
       <c r="C162" t="n">
-        <v>28011</v>
+        <v>32078</v>
       </c>
       <c r="D162" t="n">
-        <v>60825</v>
+        <v>154051</v>
       </c>
       <c r="E162" t="n">
-        <v>5.9</v>
+        <v>2.9</v>
       </c>
       <c r="F162" t="n">
-        <v>2.9</v>
+        <v>4.5</v>
       </c>
       <c r="G162" t="n">
-        <v>67706</v>
+        <v>79627</v>
       </c>
       <c r="H162" t="n">
-        <v>145422</v>
+        <v>377501</v>
       </c>
       <c r="I162" t="n">
-        <v>4.7</v>
+        <v>3.6</v>
+      </c>
+      <c r="J162" t="n">
+        <v>32170</v>
+      </c>
+      <c r="K162" t="n">
+        <v>79949</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" s="1" t="inlineStr">
         <is>
-          <t>2018年3月</t>
+          <t>2018-06</t>
         </is>
       </c>
       <c r="B163" t="n">
-        <v>-1.8</v>
+        <v>2.6</v>
       </c>
       <c r="C163" t="n">
-        <v>30162</v>
+        <v>31539</v>
       </c>
       <c r="D163" t="n">
-        <v>90862</v>
+        <v>186062</v>
       </c>
       <c r="E163" t="n">
         <v>3.1</v>
       </c>
       <c r="F163" t="n">
-        <v>-1.2</v>
+        <v>5.2</v>
       </c>
       <c r="G163" t="n">
-        <v>74128</v>
+        <v>78776</v>
       </c>
       <c r="H163" t="n">
-        <v>219608</v>
+        <v>457937</v>
       </c>
       <c r="I163" t="n">
-        <v>2.6</v>
+        <v>4.3</v>
+      </c>
+      <c r="J163" t="n">
+        <v>32011</v>
+      </c>
+      <c r="K163" t="n">
+        <v>80436</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" s="1" t="inlineStr">
         <is>
-          <t>2018年4月</t>
+          <t>2018-07</t>
         </is>
       </c>
       <c r="B164" t="n">
-        <v>0.7</v>
+        <v>0.2</v>
       </c>
       <c r="C164" t="n">
-        <v>30524</v>
+        <v>31129</v>
       </c>
       <c r="D164" t="n">
-        <v>121881</v>
+        <v>217085</v>
       </c>
       <c r="E164" t="n">
-        <v>2.9</v>
+        <v>2.6</v>
       </c>
       <c r="F164" t="n">
-        <v>3.3</v>
+        <v>2.4</v>
       </c>
       <c r="G164" t="n">
-        <v>76536</v>
+        <v>77697</v>
       </c>
       <c r="H164" t="n">
-        <v>297552</v>
+        <v>536285</v>
       </c>
       <c r="I164" t="n">
-        <v>3.3</v>
+        <v>4.1</v>
+      </c>
+      <c r="J164" t="n">
+        <v>31023</v>
+      </c>
+      <c r="K164" t="n">
+        <v>78348</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" s="1" t="inlineStr">
         <is>
-          <t>2018年5月</t>
+          <t>2018-08</t>
         </is>
       </c>
       <c r="B165" t="n">
-        <v>2.7</v>
+        <v>1.1</v>
       </c>
       <c r="C165" t="n">
-        <v>32078</v>
+        <v>31202</v>
       </c>
       <c r="D165" t="n">
-        <v>154051</v>
+        <v>248678</v>
       </c>
       <c r="E165" t="n">
-        <v>2.9</v>
+        <v>2.6</v>
       </c>
       <c r="F165" t="n">
-        <v>4.5</v>
+        <v>2.8</v>
       </c>
       <c r="G165" t="n">
-        <v>79627</v>
+        <v>77770</v>
       </c>
       <c r="H165" t="n">
-        <v>377501</v>
+        <v>614960</v>
       </c>
       <c r="I165" t="n">
-        <v>3.6</v>
+        <v>4.1</v>
+      </c>
+      <c r="J165" t="n">
+        <v>31593</v>
+      </c>
+      <c r="K165" t="n">
+        <v>78675</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" s="1" t="inlineStr">
         <is>
-          <t>2018年6月</t>
+          <t>2018-09</t>
         </is>
       </c>
       <c r="B166" t="n">
-        <v>2.6</v>
+        <v>-0.9</v>
       </c>
       <c r="C166" t="n">
-        <v>31539</v>
+        <v>30499</v>
       </c>
       <c r="D166" t="n">
-        <v>186062</v>
+        <v>279438</v>
       </c>
       <c r="E166" t="n">
-        <v>3.1</v>
+        <v>2.3</v>
       </c>
       <c r="F166" t="n">
-        <v>5.2</v>
+        <v>4.6</v>
       </c>
       <c r="G166" t="n">
-        <v>78776</v>
+        <v>77031</v>
       </c>
       <c r="H166" t="n">
-        <v>457937</v>
+        <v>692895</v>
       </c>
       <c r="I166" t="n">
         <v>4.3</v>
       </c>
+      <c r="J166" t="n">
+        <v>30760</v>
+      </c>
+      <c r="K166" t="n">
+        <v>77935</v>
+      </c>
     </row>
     <row r="167">
       <c r="A167" s="1" t="inlineStr">
         <is>
-          <t>2018年7月</t>
+          <t>2018-10</t>
         </is>
       </c>
       <c r="B167" t="n">
-        <v>0.2</v>
+        <v>-0.4</v>
       </c>
       <c r="C167" t="n">
-        <v>31129</v>
+        <v>30424</v>
       </c>
       <c r="D167" t="n">
-        <v>217085</v>
+        <v>310702</v>
       </c>
       <c r="E167" t="n">
-        <v>2.6</v>
+        <v>2.3</v>
       </c>
       <c r="F167" t="n">
-        <v>2.4</v>
+        <v>2.2</v>
       </c>
       <c r="G167" t="n">
-        <v>77697</v>
+        <v>76671</v>
       </c>
       <c r="H167" t="n">
-        <v>536285</v>
+        <v>770533</v>
       </c>
       <c r="I167" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
+      </c>
+      <c r="J167" t="n">
+        <v>31264</v>
+      </c>
+      <c r="K167" t="n">
+        <v>77638</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" s="1" t="inlineStr">
         <is>
-          <t>2018年8月</t>
+          <t>2018-11</t>
         </is>
       </c>
       <c r="B168" t="n">
-        <v>1.1</v>
+        <v>0.6</v>
       </c>
       <c r="C168" t="n">
-        <v>31202</v>
+        <v>30617</v>
       </c>
       <c r="D168" t="n">
-        <v>248678</v>
+        <v>341663</v>
       </c>
       <c r="E168" t="n">
-        <v>2.6</v>
+        <v>2.2</v>
       </c>
       <c r="F168" t="n">
-        <v>2.8</v>
+        <v>3.3</v>
       </c>
       <c r="G168" t="n">
-        <v>77770</v>
+        <v>75482</v>
       </c>
       <c r="H168" t="n">
-        <v>614960</v>
+        <v>847097</v>
       </c>
       <c r="I168" t="n">
-        <v>4.1</v>
+        <v>4.3</v>
+      </c>
+      <c r="J168" t="n">
+        <v>30961</v>
+      </c>
+      <c r="K168" t="n">
+        <v>76564</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" s="1" t="inlineStr">
         <is>
-          <t>2018年9月</t>
-        </is>
-      </c>
-      <c r="B169" t="n">
-        <v>-0.9</v>
-      </c>
-      <c r="C169" t="n">
-        <v>30499</v>
-      </c>
-      <c r="D169" t="n">
-        <v>279438</v>
-      </c>
-      <c r="E169" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="F169" t="n">
-        <v>4.6</v>
-      </c>
-      <c r="G169" t="n">
-        <v>77031</v>
-      </c>
+          <t>2018-12</t>
+        </is>
+      </c>
+      <c r="B169" t="inlineStr"/>
+      <c r="C169" t="inlineStr"/>
+      <c r="D169" t="inlineStr"/>
+      <c r="E169" t="inlineStr"/>
+      <c r="F169" t="inlineStr"/>
+      <c r="G169" t="inlineStr"/>
       <c r="H169" t="n">
-        <v>692895</v>
+        <v>921294.4014</v>
       </c>
       <c r="I169" t="n">
-        <v>4.3</v>
+        <v>4.193388596</v>
+      </c>
+      <c r="J169" t="inlineStr"/>
+      <c r="K169" t="n">
+        <v>74197.40139999997</v>
       </c>
     </row>
   </sheetData>
